--- a/result/nonlife_2019_result.xlsx
+++ b/result/nonlife_2019_result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/result/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DCCF78-F5FF-3C46-B9C9-FC51AD977A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="VRS" sheetId="4" r:id="rId4"/>
     <sheet name="VRS_Z1split" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -128,12 +134,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -141,8 +147,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,15 +201,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -238,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,9 +291,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,12 +536,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="141" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -1016,31 +1073,31 @@
         <v>1737419</v>
       </c>
       <c r="C16">
-        <v>2371124.571428571</v>
+        <v>2371124.5714285709</v>
       </c>
       <c r="D16">
-        <v>1185562.285714286</v>
+        <v>1185562.2857142859</v>
       </c>
       <c r="E16">
-        <v>1185562.285714286</v>
+        <v>1185562.2857142859</v>
       </c>
       <c r="F16">
-        <v>12298852.42857143</v>
+        <v>12298852.428571429</v>
       </c>
       <c r="G16">
-        <v>3553848.357142857</v>
+        <v>3553848.3571428568</v>
       </c>
       <c r="H16">
-        <v>8745004.071428571</v>
+        <v>8745004.0714285709</v>
       </c>
       <c r="I16">
-        <v>1235975.285714286</v>
+        <v>1235975.2857142859</v>
       </c>
       <c r="J16">
-        <v>603621.3571428572</v>
+        <v>603621.35714285716</v>
       </c>
       <c r="K16">
-        <v>626914.7142857143</v>
+        <v>626914.71428571432</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1051,45 +1108,51 @@
         <v>1199097.295664256</v>
       </c>
       <c r="C17">
-        <v>1725853.57829702</v>
+        <v>1725853.5782970199</v>
       </c>
       <c r="D17">
-        <v>862926.7891485101</v>
+        <v>862926.78914851008</v>
       </c>
       <c r="E17">
-        <v>862926.7891485101</v>
+        <v>862926.78914851008</v>
       </c>
       <c r="F17">
         <v>9392045.831334604</v>
       </c>
       <c r="G17">
-        <v>2306258.342345066</v>
+        <v>2306258.3423450659</v>
       </c>
       <c r="H17">
-        <v>7164332.068166033</v>
+        <v>7164332.0681660334</v>
       </c>
       <c r="I17">
-        <v>783281.3460123106</v>
+        <v>783281.34601231059</v>
       </c>
       <c r="J17">
         <v>604084.1180162034</v>
       </c>
       <c r="K17">
-        <v>723132.4272701765</v>
+        <v>723132.42727017647</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -1125,28 +1188,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8698937027191925</v>
+        <v>0.86989370271919253</v>
       </c>
       <c r="C2">
-        <v>0.9549316672808323</v>
+        <v>0.95493166728083234</v>
       </c>
       <c r="D2">
-        <v>0.7234104698334241</v>
+        <v>0.72341046983342405</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.8698937027191926</v>
+        <v>0.86989370271919264</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.04506805066711961</v>
+        <v>4.5068050667119608E-2</v>
       </c>
       <c r="I2">
-        <v>0.08503824661368781</v>
+        <v>8.5038246613687807E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1157,19 +1220,19 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.48165819210789</v>
+        <v>0.48165819210789002</v>
       </c>
       <c r="C3">
         <v>0.8907835627793631</v>
       </c>
       <c r="D3">
-        <v>0.8453841942715928</v>
+        <v>0.84538419427159284</v>
       </c>
       <c r="E3">
         <v>0.5823782919932915</v>
       </c>
       <c r="F3">
-        <v>0.8270538217682026</v>
+        <v>0.82705382176820263</v>
       </c>
       <c r="G3">
         <v>0.5823782919932915</v>
@@ -1178,10 +1241,10 @@
         <v>0.1092156858350304</v>
       </c>
       <c r="I3">
-        <v>0.06373049239676692</v>
+        <v>6.3730492396766925E-2</v>
       </c>
       <c r="J3">
-        <v>0.3453956296603127</v>
+        <v>0.34539562966031268</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1189,28 +1252,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9263061928602249</v>
+        <v>0.92630619286022486</v>
       </c>
       <c r="C4">
         <v>0.9992048628102681</v>
       </c>
       <c r="D4">
-        <v>0.7232621039872358</v>
+        <v>0.72326210398723578</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9263061928602249</v>
+        <v>0.92630619286022486</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.0007951055200458024</v>
+        <v>7.9510552004580237E-4</v>
       </c>
       <c r="I4">
-        <v>0.07289870161972939</v>
+        <v>7.2898701619729389E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1221,31 +1284,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3487383722565344</v>
+        <v>0.34873837225653442</v>
       </c>
       <c r="C5">
         <v>0.7840324585375722</v>
       </c>
       <c r="D5">
-        <v>0.7916383246496547</v>
+        <v>0.79163832464965467</v>
       </c>
       <c r="E5">
-        <v>0.4673296900349047</v>
+        <v>0.46732969003490471</v>
       </c>
       <c r="F5">
-        <v>0.7462362860585368</v>
+        <v>0.74623628605853676</v>
       </c>
       <c r="G5">
-        <v>0.4673296900349047</v>
+        <v>0.46732969003490471</v>
       </c>
       <c r="H5">
-        <v>0.2159656194927675</v>
+        <v>0.21596561949276749</v>
       </c>
       <c r="I5">
-        <v>0.03779809444869589</v>
+        <v>3.779809444869589E-2</v>
       </c>
       <c r="J5">
-        <v>0.3974979138020022</v>
+        <v>0.39749791380200222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1253,31 +1316,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5404774034204909</v>
+        <v>0.54047740342049089</v>
       </c>
       <c r="C6">
-        <v>0.9978167710407829</v>
+        <v>0.99781677104078292</v>
       </c>
       <c r="D6">
-        <v>0.8286243712702928</v>
+        <v>0.82862437127029276</v>
       </c>
       <c r="E6">
-        <v>0.6079685467426511</v>
+        <v>0.60796854674265111</v>
       </c>
       <c r="F6">
-        <v>0.8889890872089329</v>
+        <v>0.88898908720893288</v>
       </c>
       <c r="G6">
-        <v>0.6079685467426511</v>
+        <v>0.60796854674265111</v>
       </c>
       <c r="H6">
-        <v>0.001256635101756109</v>
+        <v>1.2566351017561091E-3</v>
       </c>
       <c r="I6">
-        <v>0.109754277689311</v>
+        <v>0.10975427768931099</v>
       </c>
       <c r="J6">
-        <v>0.3485116837884419</v>
+        <v>0.34851168378844188</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1285,31 +1348,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3464275568194438</v>
+        <v>0.34642755681944382</v>
       </c>
       <c r="C7">
-        <v>0.9329977717970473</v>
+        <v>0.93299777179704735</v>
       </c>
       <c r="D7">
-        <v>0.5472038444021166</v>
+        <v>0.54720384440211656</v>
       </c>
       <c r="E7">
-        <v>0.4371789888631274</v>
+        <v>0.43717898886312739</v>
       </c>
       <c r="F7">
-        <v>0.7924158425827363</v>
+        <v>0.79241584258273634</v>
       </c>
       <c r="G7">
-        <v>0.4371789888631274</v>
+        <v>0.43717898886312739</v>
       </c>
       <c r="H7">
-        <v>0.06700134286767023</v>
+        <v>6.7001342867670233E-2</v>
       </c>
       <c r="I7">
-        <v>0.1405828145495936</v>
+        <v>0.14058281454959359</v>
       </c>
       <c r="J7">
-        <v>0.4459882857632924</v>
+        <v>0.44598828576329241</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1317,31 +1380,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5044912943616137</v>
+        <v>0.50449129436161366</v>
       </c>
       <c r="C8">
-        <v>0.9413110499178871</v>
+        <v>0.94131104991788705</v>
       </c>
       <c r="D8">
         <v>0.9453271673109559</v>
       </c>
       <c r="E8">
-        <v>0.5480791823598495</v>
+        <v>0.54807918235984954</v>
       </c>
       <c r="F8">
         <v>0.9204715497301672</v>
       </c>
       <c r="G8">
-        <v>0.5480791823598495</v>
+        <v>0.54807918235984954</v>
       </c>
       <c r="H8">
-        <v>0.05868856660792632</v>
+        <v>5.8688566607926318E-2</v>
       </c>
       <c r="I8">
-        <v>0.02083988366190653</v>
+        <v>2.083988366190653E-2</v>
       </c>
       <c r="J8">
-        <v>0.4159802553685533</v>
+        <v>0.41598025536855332</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1349,31 +1412,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5913966498243401</v>
+        <v>0.59139664982434015</v>
       </c>
       <c r="C9">
-        <v>0.8170400224105276</v>
+        <v>0.81704002241052764</v>
       </c>
       <c r="D9">
-        <v>0.794720320957343</v>
+        <v>0.79472032095734302</v>
       </c>
       <c r="E9">
-        <v>0.7678181917232582</v>
+        <v>0.76781819172325816</v>
       </c>
       <c r="F9">
-        <v>0.7702300573226</v>
+        <v>0.77023005732259997</v>
       </c>
       <c r="G9">
-        <v>0.7678181917232582</v>
+        <v>0.76781819172325816</v>
       </c>
       <c r="H9">
-        <v>0.1829587373742237</v>
+        <v>0.18295873737422369</v>
       </c>
       <c r="I9">
-        <v>0.04681120530317617</v>
+        <v>4.6811205303176173E-2</v>
       </c>
       <c r="J9">
-        <v>0.1788334074982598</v>
+        <v>0.17883340749825979</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1381,31 +1444,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4502111757433215</v>
+        <v>0.45021117574332148</v>
       </c>
       <c r="C10">
-        <v>0.8219310410422117</v>
+        <v>0.82193104104221171</v>
       </c>
       <c r="D10">
-        <v>0.6750532830277126</v>
+        <v>0.67505328302771261</v>
       </c>
       <c r="E10">
-        <v>0.6132431804673428</v>
+        <v>0.61324318046734283</v>
       </c>
       <c r="F10">
         <v>0.7341478716489318</v>
       </c>
       <c r="G10">
-        <v>0.6132431804673428</v>
+        <v>0.61324318046734283</v>
       </c>
       <c r="H10">
-        <v>0.178067112292759</v>
+        <v>0.17806711229275901</v>
       </c>
       <c r="I10">
-        <v>0.0877850160583091</v>
+        <v>8.7785016058309101E-2</v>
       </c>
       <c r="J10">
-        <v>0.2839366959056104</v>
+        <v>0.28393669590561038</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1413,31 +1476,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.7071693001986687</v>
+        <v>0.70716930019866875</v>
       </c>
       <c r="C11">
-        <v>0.945054495462046</v>
+        <v>0.94505449546204601</v>
       </c>
       <c r="D11">
-        <v>0.5619256996589568</v>
+        <v>0.56192569965895678</v>
       </c>
       <c r="E11">
-        <v>0.834620469581919</v>
+        <v>0.83462046958191904</v>
       </c>
       <c r="F11">
-        <v>0.8472944601429515</v>
+        <v>0.84729446014295151</v>
       </c>
       <c r="G11">
-        <v>0.834620469581919</v>
+        <v>0.83462046958191904</v>
       </c>
       <c r="H11">
-        <v>0.05494459591898071</v>
+        <v>5.494459591898071E-2</v>
       </c>
       <c r="I11">
-        <v>0.09776094393806775</v>
+        <v>9.7760943938067751E-2</v>
       </c>
       <c r="J11">
-        <v>0.140125159944283</v>
+        <v>0.14012515994428301</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1445,31 +1508,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5084525046529884</v>
+        <v>0.50845250465298841</v>
       </c>
       <c r="C12">
-        <v>0.9460102526633465</v>
+        <v>0.94601025266334648</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.5248722823333584</v>
+        <v>0.52487228233335836</v>
       </c>
       <c r="F12">
-        <v>0.968716622627938</v>
+        <v>0.96871662262793801</v>
       </c>
       <c r="G12">
-        <v>0.5248722823333584</v>
+        <v>0.52487228233335836</v>
       </c>
       <c r="H12">
-        <v>0.03128337737206205</v>
+        <v>3.1283377372062049E-2</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4602641179749495</v>
+        <v>0.46026411797494948</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1477,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7009587314757886</v>
+        <v>0.70095873147578858</v>
       </c>
       <c r="C13">
-        <v>0.9750016437959284</v>
+        <v>0.97500164379592835</v>
       </c>
       <c r="D13">
-        <v>0.7844512332267392</v>
+        <v>0.78445123322673915</v>
       </c>
       <c r="E13">
-        <v>0.792086814974616</v>
+        <v>0.79208681497461597</v>
       </c>
       <c r="F13">
-        <v>0.8849518994938101</v>
+        <v>0.88495189949381015</v>
       </c>
       <c r="G13">
-        <v>0.792086814974616</v>
+        <v>0.79208681497461597</v>
       </c>
       <c r="H13">
-        <v>0.01794592313439047</v>
+        <v>1.794592313439047E-2</v>
       </c>
       <c r="I13">
-        <v>0.09710217737179927</v>
+        <v>9.710217737179927E-2</v>
       </c>
       <c r="J13">
         <v>0.1839931680180216</v>
@@ -1509,31 +1572,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6402902943749952</v>
+        <v>0.64029029437499518</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.769481302373526</v>
+        <v>0.76948130237352597</v>
       </c>
       <c r="E14">
-        <v>0.6778518166595346</v>
+        <v>0.67785181665953465</v>
       </c>
       <c r="F14">
-        <v>0.9445874137069615</v>
+        <v>0.94458741370696153</v>
       </c>
       <c r="G14">
-        <v>0.6778518166595346</v>
+        <v>0.67785181665953465</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05541258629303861</v>
+        <v>5.5412586293038607E-2</v>
       </c>
       <c r="J14">
-        <v>0.3042971193319662</v>
+        <v>0.30429711933196618</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1541,31 +1604,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.4997846293842729</v>
+        <v>0.49978462938427293</v>
       </c>
       <c r="C15">
-        <v>0.8151657171681351</v>
+        <v>0.81516571716813513</v>
       </c>
       <c r="D15">
-        <v>0.9886292702011968</v>
+        <v>0.98862927020119684</v>
       </c>
       <c r="E15">
-        <v>0.6152605167063452</v>
+        <v>0.61526051670634518</v>
       </c>
       <c r="F15">
-        <v>0.8123138342433452</v>
+        <v>0.81231383424334525</v>
       </c>
       <c r="G15">
-        <v>0.6152605167063452</v>
+        <v>0.61526051670634518</v>
       </c>
       <c r="H15">
-        <v>0.184833740187984</v>
+        <v>0.18483374018798401</v>
       </c>
       <c r="I15">
-        <v>0.00285242556867088</v>
+        <v>2.8524255686708799E-3</v>
       </c>
       <c r="J15">
-        <v>0.3125292048590722</v>
+        <v>0.31252920485907221</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1573,31 +1636,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5797325714428405</v>
+        <v>0.57973257144284052</v>
       </c>
       <c r="C16">
         <v>0.915805808336139</v>
       </c>
       <c r="D16">
-        <v>0.7842222560836248</v>
+        <v>0.78422225608362484</v>
       </c>
       <c r="E16">
-        <v>0.6763348551742999</v>
+        <v>0.67633485517429992</v>
       </c>
       <c r="F16">
-        <v>0.8524006172938952</v>
+        <v>0.85240061729389516</v>
       </c>
       <c r="G16">
-        <v>0.6763348551742999</v>
+        <v>0.67633485517429992</v>
       </c>
       <c r="H16">
-        <v>0.08200174945519399</v>
+        <v>8.2001749455193992E-2</v>
       </c>
       <c r="I16">
-        <v>0.06559763325091092</v>
+        <v>6.5597633250910919E-2</v>
       </c>
       <c r="J16">
-        <v>0.2726680458510546</v>
+        <v>0.27266804585105459</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1608,42 +1671,48 @@
         <v>0.1616384056045565</v>
       </c>
       <c r="C17">
-        <v>0.07080707400178775</v>
+        <v>7.0807074001787748E-2</v>
       </c>
       <c r="D17">
         <v>0.1278847151034711</v>
       </c>
       <c r="E17">
-        <v>0.1668980015999862</v>
+        <v>0.16689800159998619</v>
       </c>
       <c r="F17">
-        <v>0.06962185905569569</v>
+        <v>6.9621859055695692E-2</v>
       </c>
       <c r="G17">
-        <v>0.1668980015999862</v>
+        <v>0.16689800159998619</v>
       </c>
       <c r="H17">
-        <v>0.07213921190161056</v>
+        <v>7.2139211901610559E-2</v>
       </c>
       <c r="I17">
-        <v>0.03829652453578817</v>
+        <v>3.8296524535788169E-2</v>
       </c>
       <c r="J17">
         <v>0.140959200992471</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -1679,28 +1748,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8703509411719522</v>
+        <v>0.87035094117195222</v>
       </c>
       <c r="C2">
-        <v>0.9576073862036237</v>
+        <v>0.95760738620362373</v>
       </c>
       <c r="D2">
-        <v>0.7234105389957735</v>
+        <v>0.72341053899577346</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.8703509411719523</v>
+        <v>0.87035094117195233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.04239234848983364</v>
+        <v>4.2392348489833642E-2</v>
       </c>
       <c r="I2">
-        <v>0.08725671033821411</v>
+        <v>8.7256710338214111E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1711,28 +1780,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5036652387860502</v>
+        <v>0.50366523878605018</v>
       </c>
       <c r="C3">
-        <v>0.6300681183696383</v>
+        <v>0.63006811836963827</v>
       </c>
       <c r="D3">
-        <v>0.831392629367731</v>
+        <v>0.83139262936773095</v>
       </c>
       <c r="E3">
-        <v>0.7993901644053695</v>
+        <v>0.79939016440536947</v>
       </c>
       <c r="F3">
-        <v>0.6300618411545059</v>
+        <v>0.63006184115450592</v>
       </c>
       <c r="G3">
-        <v>0.7993901644053695</v>
+        <v>0.79939016440536947</v>
       </c>
       <c r="H3">
-        <v>0.3699326034202322</v>
+        <v>0.36993260342023221</v>
       </c>
       <c r="I3">
-        <v>5.555425261913679E-06</v>
+        <v>5.5554252619136786E-6</v>
       </c>
       <c r="J3">
         <v>0.1263966023684556</v>
@@ -1743,10 +1812,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9686308600711512</v>
+        <v>0.96863086007115118</v>
       </c>
       <c r="C4">
-        <v>0.9686421176943315</v>
+        <v>0.96864211769433151</v>
       </c>
       <c r="D4">
         <v>1.608605976524305</v>
@@ -1755,16 +1824,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9686308600711512</v>
+        <v>0.96863086007115118</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.03135663334598893</v>
+        <v>3.1356633345988927E-2</v>
       </c>
       <c r="I4">
-        <v>1.250658285979399E-05</v>
+        <v>1.250658285979399E-5</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1775,31 +1844,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3646722210362349</v>
+        <v>0.36467222103623492</v>
       </c>
       <c r="C5">
-        <v>0.7933246334674715</v>
+        <v>0.79332463346747151</v>
       </c>
       <c r="D5">
-        <v>0.8454788920058284</v>
+        <v>0.84547889200582838</v>
       </c>
       <c r="E5">
-        <v>0.4596777138731444</v>
+        <v>0.45967771387314438</v>
       </c>
       <c r="F5">
-        <v>0.7933215164241618</v>
+        <v>0.79332151642416182</v>
       </c>
       <c r="G5">
-        <v>0.4596777138731444</v>
+        <v>0.45967771387314438</v>
       </c>
       <c r="H5">
-        <v>0.2066758881605519</v>
+        <v>0.20667588816055191</v>
       </c>
       <c r="I5">
-        <v>2.595415286337192E-06</v>
+        <v>2.5954152863371919E-6</v>
       </c>
       <c r="J5">
-        <v>0.4286492953879268</v>
+        <v>0.42864929538792679</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1807,22 +1876,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5411654228362874</v>
+        <v>0.54116542283628744</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8211930185118667</v>
+        <v>0.82119301851186666</v>
       </c>
       <c r="E6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="F6">
-        <v>0.8869529424214169</v>
+        <v>0.88695294242141687</v>
       </c>
       <c r="G6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1831,7 +1900,7 @@
         <v>0.1130470575785834</v>
       </c>
       <c r="J6">
-        <v>0.3457875195851293</v>
+        <v>0.34578751958512932</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1839,10 +1908,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3622567034397969</v>
+        <v>0.36225670343979688</v>
       </c>
       <c r="C7">
-        <v>0.8195113773606559</v>
+        <v>0.81951137736065593</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1851,19 +1920,19 @@
         <v>0.4420385844954075</v>
       </c>
       <c r="F7">
-        <v>0.819513762250681</v>
+        <v>0.81951376225068095</v>
       </c>
       <c r="G7">
         <v>0.4420385844954075</v>
       </c>
       <c r="H7">
-        <v>0.1804862377493192</v>
+        <v>0.18048623774931921</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.457257058810884</v>
+        <v>0.45725705881088402</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1871,31 +1940,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5275414831759986</v>
+        <v>0.52754148317599858</v>
       </c>
       <c r="C8">
-        <v>0.73739992564434</v>
+        <v>0.73739992564433998</v>
       </c>
       <c r="D8">
-        <v>0.9076957451668602</v>
+        <v>0.90769574516686025</v>
       </c>
       <c r="E8">
-        <v>0.7154084066468467</v>
+        <v>0.71540840664684668</v>
       </c>
       <c r="F8">
-        <v>0.7373990552453956</v>
+        <v>0.73739905524539562</v>
       </c>
       <c r="G8">
-        <v>0.7154084066468467</v>
+        <v>0.71540840664684668</v>
       </c>
       <c r="H8">
-        <v>0.2625983585241481</v>
+        <v>0.26259835852414809</v>
       </c>
       <c r="I8">
-        <v>2.586230456212519E-06</v>
+        <v>2.5862304562125191E-6</v>
       </c>
       <c r="J8">
-        <v>0.209857572069397</v>
+        <v>0.20985757206939701</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1903,31 +1972,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5954212540559204</v>
+        <v>0.59542125405592039</v>
       </c>
       <c r="C9">
-        <v>0.7753903268129932</v>
+        <v>0.77539032681299325</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7678918832681794</v>
+        <v>0.76789188326817936</v>
       </c>
       <c r="F9">
-        <v>0.7753798148105066</v>
+        <v>0.77537981481050655</v>
       </c>
       <c r="G9">
-        <v>0.7678918832681794</v>
+        <v>0.76789188326817936</v>
       </c>
       <c r="H9">
-        <v>0.2246096731870068</v>
+        <v>0.22460967318700681</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1799690727570729</v>
+        <v>0.17996907275707291</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1935,10 +2004,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4610346620206425</v>
+        <v>0.46103466202064253</v>
       </c>
       <c r="C10">
-        <v>0.7263895442716617</v>
+        <v>0.72638954427166169</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1947,19 +2016,19 @@
         <v>0.6346847939942486</v>
       </c>
       <c r="F10">
-        <v>0.7263744785313387</v>
+        <v>0.72637447853133874</v>
       </c>
       <c r="G10">
         <v>0.6346847939942486</v>
       </c>
       <c r="H10">
-        <v>0.2736104557283383</v>
+        <v>0.27361045572833831</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2653548822510193</v>
+        <v>0.26535488225101928</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1967,31 +2036,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.7077671330109161</v>
+        <v>0.70776713301091609</v>
       </c>
       <c r="C11">
         <v>0.9438857936185312</v>
       </c>
       <c r="D11">
-        <v>0.5659186688001699</v>
+        <v>0.56591866880016994</v>
       </c>
       <c r="E11">
-        <v>0.8376947423175213</v>
+        <v>0.83769474231752128</v>
       </c>
       <c r="F11">
-        <v>0.8448986214869221</v>
+        <v>0.84489862148692207</v>
       </c>
       <c r="G11">
-        <v>0.8376947423175213</v>
+        <v>0.83769474231752128</v>
       </c>
       <c r="H11">
-        <v>0.05639176097966292</v>
+        <v>5.6391760979662919E-2</v>
       </c>
       <c r="I11">
-        <v>0.09870961753341492</v>
+        <v>9.8709617533414923E-2</v>
       </c>
       <c r="J11">
-        <v>0.1371314884760061</v>
+        <v>0.13713148847600609</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1999,25 +2068,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5086053245515481</v>
+        <v>0.50860532455154805</v>
       </c>
       <c r="C12">
-        <v>0.9349777437146505</v>
+        <v>0.93497774371465048</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="F12">
-        <v>0.9624970775204779</v>
+        <v>0.96249707752047786</v>
       </c>
       <c r="G12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="H12">
-        <v>0.03750292247952211</v>
+        <v>3.7502922479522111E-2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2031,28 +2100,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7013447286482605</v>
+        <v>0.70134472864826047</v>
       </c>
       <c r="C13">
-        <v>0.9621139254907807</v>
+        <v>0.96211392549078067</v>
       </c>
       <c r="D13">
-        <v>0.7631129387293846</v>
+        <v>0.76311293872938457</v>
       </c>
       <c r="E13">
-        <v>0.7776442553506204</v>
+        <v>0.77764425535062043</v>
       </c>
       <c r="F13">
-        <v>0.9018837647454125</v>
+        <v>0.90188376474541254</v>
       </c>
       <c r="G13">
-        <v>0.7776442553506204</v>
+        <v>0.77764425535062043</v>
       </c>
       <c r="H13">
-        <v>0.03029882214447666</v>
+        <v>3.0298822144476659E-2</v>
       </c>
       <c r="I13">
-        <v>0.06781741311011083</v>
+        <v>6.781741311011083E-2</v>
       </c>
       <c r="J13">
         <v>0.2005390360971521</v>
@@ -2063,7 +2132,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6406266930899321</v>
+        <v>0.64062669308993214</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2072,19 +2141,19 @@
         <v>0.7694817255995211</v>
       </c>
       <c r="E14">
-        <v>0.6792468928951947</v>
+        <v>0.67924689289519469</v>
       </c>
       <c r="F14">
-        <v>0.9431426183774662</v>
+        <v>0.94314261837746616</v>
       </c>
       <c r="G14">
-        <v>0.6792468928951947</v>
+        <v>0.67924689289519469</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05685738162253418</v>
+        <v>5.6857381622534182E-2</v>
       </c>
       <c r="J14">
         <v>0.3025159252875339</v>
@@ -2098,28 +2167,28 @@
         <v>0.5226205182399345</v>
       </c>
       <c r="C15">
-        <v>0.7428803125403948</v>
+        <v>0.74288031254039477</v>
       </c>
       <c r="D15">
-        <v>0.8543694481858367</v>
+        <v>0.85436944818583671</v>
       </c>
       <c r="E15">
-        <v>0.7035062701945515</v>
+        <v>0.70350627019455148</v>
       </c>
       <c r="F15">
-        <v>0.7428796876187134</v>
+        <v>0.74287968761871337</v>
       </c>
       <c r="G15">
-        <v>0.7035062701945515</v>
+        <v>0.70350627019455148</v>
       </c>
       <c r="H15">
         <v>0.2571189325973422</v>
       </c>
       <c r="I15">
-        <v>1.379783944690879E-06</v>
+        <v>1.3797839446908789E-6</v>
       </c>
       <c r="J15">
-        <v>0.2202591693787785</v>
+        <v>0.22025916937877851</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2127,31 +2196,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5911216560096161</v>
+        <v>0.59112165600961608</v>
       </c>
       <c r="C16">
-        <v>0.8565850860849339</v>
+        <v>0.85658508608493389</v>
       </c>
       <c r="D16">
-        <v>0.7636185415633771</v>
+        <v>0.76361854156337705</v>
       </c>
       <c r="E16">
-        <v>0.7111247412203324</v>
+        <v>0.71112474122033242</v>
       </c>
       <c r="F16">
         <v>0.8288062129878645</v>
       </c>
       <c r="G16">
-        <v>0.7111247412203324</v>
+        <v>0.71112474122033242</v>
       </c>
       <c r="H16">
-        <v>0.1409267597718873</v>
+        <v>0.14092675977188729</v>
       </c>
       <c r="I16">
-        <v>0.03026520025861903</v>
+        <v>3.0265200258619031E-2</v>
       </c>
       <c r="J16">
-        <v>0.2376863839598775</v>
+        <v>0.23768638395987751</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2159,19 +2228,19 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.162270535342797</v>
+        <v>0.16227053534279701</v>
       </c>
       <c r="C17">
         <v>0.114357551628679</v>
       </c>
       <c r="D17">
-        <v>0.3720503993446186</v>
+        <v>0.37205039934461859</v>
       </c>
       <c r="E17">
         <v>0.1601046557797749</v>
       </c>
       <c r="F17">
-        <v>0.09349987832992147</v>
+        <v>9.3499878329921474E-2</v>
       </c>
       <c r="G17">
         <v>0.1601046557797749</v>
@@ -2180,24 +2249,30 @@
         <v>0.1162642139043687</v>
       </c>
       <c r="I17">
-        <v>0.04094318830983494</v>
+        <v>4.0943188309834941E-2</v>
       </c>
       <c r="J17">
-        <v>0.1388891279429134</v>
+        <v>0.13888912794291339</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="9.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -2233,28 +2308,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8698937027191924</v>
+        <v>0.86989370271919242</v>
       </c>
       <c r="C2">
-        <v>0.9549316672808323</v>
+        <v>0.95493166728083234</v>
       </c>
       <c r="D2">
-        <v>0.7234104698334241</v>
+        <v>0.72341046983342405</v>
       </c>
       <c r="E2">
         <v>1.000000000011495</v>
       </c>
       <c r="F2">
-        <v>0.8698937027191926</v>
+        <v>0.86989370271919264</v>
       </c>
       <c r="G2">
         <v>1.000000000011495</v>
       </c>
       <c r="H2">
-        <v>0.04506805066711961</v>
+        <v>4.5068050667119608E-2</v>
       </c>
       <c r="I2">
-        <v>0.08503824661368781</v>
+        <v>8.5038246613687807E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2265,31 +2340,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.4931026431972407</v>
+        <v>0.49310264319724068</v>
       </c>
       <c r="C3">
-        <v>0.8993899223950526</v>
+        <v>0.89938992239505255</v>
       </c>
       <c r="D3">
-        <v>0.855021854975814</v>
+        <v>0.85502185497581396</v>
       </c>
       <c r="E3">
-        <v>0.5871363746176759</v>
+        <v>0.58713637461767587</v>
       </c>
       <c r="F3">
-        <v>0.8398434580453382</v>
+        <v>0.83984345804533822</v>
       </c>
       <c r="G3">
-        <v>0.5871363746176759</v>
+        <v>0.58713637461767587</v>
       </c>
       <c r="H3">
-        <v>0.09564291786269974</v>
+        <v>9.5642917862699739E-2</v>
       </c>
       <c r="I3">
-        <v>0.06451362409196218</v>
+        <v>6.451362409196218E-2</v>
       </c>
       <c r="J3">
-        <v>0.3467408148480974</v>
+        <v>0.34674081484809738</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2297,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2329,22 +2404,22 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3560283648597758</v>
+        <v>0.35602836485977579</v>
       </c>
       <c r="C5">
-        <v>0.7904436877359678</v>
+        <v>0.79044368773596785</v>
       </c>
       <c r="D5">
         <v>0.5289429159085316</v>
       </c>
       <c r="E5">
-        <v>0.5119630622573159</v>
+        <v>0.51196306225731592</v>
       </c>
       <c r="F5">
-        <v>0.6954180703879634</v>
+        <v>0.69541807038796344</v>
       </c>
       <c r="G5">
-        <v>0.5119630622573159</v>
+        <v>0.51196306225731592</v>
       </c>
       <c r="H5">
         <v>0.1989470337813575</v>
@@ -2353,7 +2428,7 @@
         <v>0.1056348958306791</v>
       </c>
       <c r="J5">
-        <v>0.3393897055281876</v>
+        <v>0.33938970552818759</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2361,31 +2436,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5404774034204909</v>
+        <v>0.54047740342049089</v>
       </c>
       <c r="C6">
-        <v>0.9978167710407829</v>
+        <v>0.99781677104078292</v>
       </c>
       <c r="D6">
-        <v>0.8286243712702928</v>
+        <v>0.82862437127029276</v>
       </c>
       <c r="E6">
-        <v>0.60796854674949</v>
+        <v>0.60796854674948997</v>
       </c>
       <c r="F6">
-        <v>0.8889890872089329</v>
+        <v>0.88898908720893288</v>
       </c>
       <c r="G6">
-        <v>0.60796854674949</v>
+        <v>0.60796854674948997</v>
       </c>
       <c r="H6">
-        <v>0.001256635101756109</v>
+        <v>1.2566351017561091E-3</v>
       </c>
       <c r="I6">
-        <v>0.109754277689311</v>
+        <v>0.10975427768931099</v>
       </c>
       <c r="J6">
-        <v>0.3485116837884419</v>
+        <v>0.34851168378844188</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2393,31 +2468,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3521441152232688</v>
+        <v>0.35214411522326883</v>
       </c>
       <c r="C7">
-        <v>0.9329977717970473</v>
+        <v>0.93299777179704735</v>
       </c>
       <c r="D7">
         <v>0.4603343660969017</v>
       </c>
       <c r="E7">
-        <v>0.4600515754156286</v>
+        <v>0.46005157541562858</v>
       </c>
       <c r="F7">
-        <v>0.7654448632411019</v>
+        <v>0.76544486324110195</v>
       </c>
       <c r="G7">
-        <v>0.4600515754156286</v>
+        <v>0.46005157541562858</v>
       </c>
       <c r="H7">
-        <v>0.06700134286767023</v>
+        <v>6.7001342867670233E-2</v>
       </c>
       <c r="I7">
         <v>0.1675537938912279</v>
       </c>
       <c r="J7">
-        <v>0.413300748017833</v>
+        <v>0.41330074801783301</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2428,28 +2503,28 @@
         <v>0.512815241616145</v>
       </c>
       <c r="C8">
-        <v>0.9413110499178871</v>
+        <v>0.94131104991788705</v>
       </c>
       <c r="D8">
-        <v>0.7605386138559881</v>
+        <v>0.76053861385598809</v>
       </c>
       <c r="E8">
-        <v>0.6032872889588534</v>
+        <v>0.60328728895885342</v>
       </c>
       <c r="F8">
-        <v>0.8500348855471309</v>
+        <v>0.85003488554713091</v>
       </c>
       <c r="G8">
-        <v>0.6032872889588534</v>
+        <v>0.60328728895885342</v>
       </c>
       <c r="H8">
-        <v>0.05868856660792632</v>
+        <v>5.8688566607926318E-2</v>
       </c>
       <c r="I8">
-        <v>0.09127654784494277</v>
+        <v>9.1276547844942768E-2</v>
       </c>
       <c r="J8">
-        <v>0.3372196439309859</v>
+        <v>0.33721964393098591</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2457,31 +2532,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5913966498243401</v>
+        <v>0.59139664982434015</v>
       </c>
       <c r="C9">
-        <v>0.8170400224105276</v>
+        <v>0.81704002241052764</v>
       </c>
       <c r="D9">
-        <v>0.794720320957343</v>
+        <v>0.79472032095734302</v>
       </c>
       <c r="E9">
-        <v>0.7678181917332269</v>
+        <v>0.76781819173322685</v>
       </c>
       <c r="F9">
-        <v>0.7702300573226</v>
+        <v>0.77023005732259997</v>
       </c>
       <c r="G9">
-        <v>0.7678181917332269</v>
+        <v>0.76781819173322685</v>
       </c>
       <c r="H9">
-        <v>0.1829587373742237</v>
+        <v>0.18295873737422369</v>
       </c>
       <c r="I9">
-        <v>0.04681120530317617</v>
+        <v>4.6811205303176173E-2</v>
       </c>
       <c r="J9">
-        <v>0.1788334074982598</v>
+        <v>0.17883340749825979</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2489,31 +2564,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4502111757433215</v>
+        <v>0.45021117574332148</v>
       </c>
       <c r="C10">
-        <v>0.8219310410422117</v>
+        <v>0.82193104104221171</v>
       </c>
       <c r="D10">
-        <v>0.6750532830277126</v>
+        <v>0.67505328302771261</v>
       </c>
       <c r="E10">
-        <v>0.6132431804756959</v>
+        <v>0.61324318047569593</v>
       </c>
       <c r="F10">
         <v>0.7341478716489318</v>
       </c>
       <c r="G10">
-        <v>0.6132431804756959</v>
+        <v>0.61324318047569593</v>
       </c>
       <c r="H10">
-        <v>0.178067112292759</v>
+        <v>0.17806711229275901</v>
       </c>
       <c r="I10">
-        <v>0.0877850160583091</v>
+        <v>8.7785016058309101E-2</v>
       </c>
       <c r="J10">
-        <v>0.2839366959056104</v>
+        <v>0.28393669590561038</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2521,28 +2596,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8472944601429516</v>
+        <v>0.84729446014295162</v>
       </c>
       <c r="C11">
-        <v>0.945054495462046</v>
+        <v>0.94505449546204601</v>
       </c>
       <c r="D11">
-        <v>0.5619256996589568</v>
+        <v>0.56192569965895678</v>
       </c>
       <c r="E11">
-        <v>1.000000000011802</v>
+        <v>1.0000000000118019</v>
       </c>
       <c r="F11">
-        <v>0.8472944601429515</v>
+        <v>0.84729446014295151</v>
       </c>
       <c r="G11">
-        <v>1.000000000011802</v>
+        <v>1.0000000000118019</v>
       </c>
       <c r="H11">
-        <v>0.05494459591898071</v>
+        <v>5.494459591898071E-2</v>
       </c>
       <c r="I11">
-        <v>0.09776094393806775</v>
+        <v>9.7760943938067751E-2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2553,31 +2628,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5084525046529884</v>
+        <v>0.50845250465298841</v>
       </c>
       <c r="C12">
-        <v>0.9460102526633465</v>
+        <v>0.94601025266334648</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.5248722823387766</v>
+        <v>0.52487228233877659</v>
       </c>
       <c r="F12">
-        <v>0.968716622627938</v>
+        <v>0.96871662262793801</v>
       </c>
       <c r="G12">
-        <v>0.5248722823387766</v>
+        <v>0.52487228233877659</v>
       </c>
       <c r="H12">
-        <v>0.03128337737206205</v>
+        <v>3.1283377372062049E-2</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4602641179749496</v>
+        <v>0.46026411797494959</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2588,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.9999999999999996</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2617,28 +2692,28 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.7065789017945306</v>
+        <v>0.70657890179453064</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.769481302373526</v>
+        <v>0.76948130237352597</v>
       </c>
       <c r="E14">
-        <v>0.7480291305482208</v>
+        <v>0.74802913054822084</v>
       </c>
       <c r="F14">
-        <v>0.9445874137069615</v>
+        <v>0.94458741370696153</v>
       </c>
       <c r="G14">
-        <v>0.7480291305482208</v>
+        <v>0.74802913054822084</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05541258629303861</v>
+        <v>5.5412586293038607E-2</v>
       </c>
       <c r="J14">
         <v>0.2380085119124308</v>
@@ -2652,28 +2727,28 @@
         <v>0.5080305807812574</v>
       </c>
       <c r="C15">
-        <v>0.8151657171681351</v>
+        <v>0.81516571716813513</v>
       </c>
       <c r="D15">
-        <v>0.0121940411687968</v>
+        <v>1.21940411687968E-2</v>
       </c>
       <c r="E15">
-        <v>0.8954157782217306</v>
+        <v>0.89541577822173057</v>
       </c>
       <c r="F15">
-        <v>0.5673683590869322</v>
+        <v>0.56736835908693217</v>
       </c>
       <c r="G15">
-        <v>0.8954157782217306</v>
+        <v>0.89541577822173057</v>
       </c>
       <c r="H15">
-        <v>0.184833740187984</v>
+        <v>0.18483374018798401</v>
       </c>
       <c r="I15">
         <v>0.2477979007250839</v>
       </c>
       <c r="J15">
-        <v>0.05933777830567466</v>
+        <v>5.933777830567466E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2681,31 +2756,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.6240304102839646</v>
+        <v>0.62403041028396455</v>
       </c>
       <c r="C16">
-        <v>0.9187208856367027</v>
+        <v>0.91872088563670273</v>
       </c>
       <c r="D16">
-        <v>0.7121605170805205</v>
+        <v>0.71216051708052053</v>
       </c>
       <c r="E16">
-        <v>0.7371275293828509</v>
+        <v>0.73712752938285087</v>
       </c>
       <c r="F16">
         <v>0.8387120608347125</v>
       </c>
       <c r="G16">
-        <v>0.7371275293828509</v>
+        <v>0.73712752938285087</v>
       </c>
       <c r="H16">
-        <v>0.07847800785960993</v>
+        <v>7.8478007859609927E-2</v>
       </c>
       <c r="I16">
-        <v>0.0828099313056776</v>
+        <v>8.2809931305677598E-2</v>
       </c>
       <c r="J16">
-        <v>0.2146816505507479</v>
+        <v>0.21468165055074789</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2716,42 +2791,48 @@
         <v>0.2065829400471477</v>
       </c>
       <c r="C17">
-        <v>0.07155335872420819</v>
+        <v>7.1553358724208191E-2</v>
       </c>
       <c r="D17">
         <v>0.2457617144838791</v>
       </c>
       <c r="E17">
-        <v>0.1910472920900763</v>
+        <v>0.19104729209007629</v>
       </c>
       <c r="F17">
         <v>0.1151791943383777</v>
       </c>
       <c r="G17">
-        <v>0.1910472920900763</v>
+        <v>0.19104729209007629</v>
       </c>
       <c r="H17">
-        <v>0.07109309575226987</v>
+        <v>7.1093095752269866E-2</v>
       </c>
       <c r="I17">
-        <v>0.06267811641085351</v>
+        <v>6.267811641085351E-2</v>
       </c>
       <c r="J17">
-        <v>0.1593294525878032</v>
+        <v>0.15932945258780321</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -2787,28 +2868,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8703509411719523</v>
+        <v>0.87035094117195233</v>
       </c>
       <c r="C2">
-        <v>0.9576073862036238</v>
+        <v>0.95760738620362384</v>
       </c>
       <c r="D2">
-        <v>0.7234105389957736</v>
+        <v>0.72341053899577357</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.8703509411719524</v>
+        <v>0.87035094117195244</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.04239234848983353</v>
+        <v>4.2392348489833531E-2</v>
       </c>
       <c r="I2">
-        <v>0.08725671033821411</v>
+        <v>8.7256710338214111E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2819,28 +2900,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5080327147520118</v>
+        <v>0.50803271475201184</v>
       </c>
       <c r="C3">
         <v>0.634829125679504</v>
       </c>
       <c r="D3">
-        <v>0.9783171587408794</v>
+        <v>0.97831715874087943</v>
       </c>
       <c r="E3">
-        <v>0.7873188668069385</v>
+        <v>0.78731886680693852</v>
       </c>
       <c r="F3">
-        <v>0.6452693262799563</v>
+        <v>0.64526932627995626</v>
       </c>
       <c r="G3">
-        <v>0.7873188668069385</v>
+        <v>0.78731886680693852</v>
       </c>
       <c r="H3">
         <v>0.3540708267183017</v>
       </c>
       <c r="I3">
-        <v>0.000659847001742056</v>
+        <v>6.5984700174205602E-4</v>
       </c>
       <c r="J3">
         <v>0.1372366115279445</v>
@@ -2883,28 +2964,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3672016853692776</v>
+        <v>0.36720168536927761</v>
       </c>
       <c r="C5">
-        <v>0.7986089679481467</v>
+        <v>0.79860896794814673</v>
       </c>
       <c r="D5">
-        <v>-0.1222847244716525</v>
+        <v>-0.12228472447165251</v>
       </c>
       <c r="E5">
-        <v>0.4769773795938949</v>
+        <v>0.47697737959389491</v>
       </c>
       <c r="F5">
-        <v>0.7698513620958675</v>
+        <v>0.76985136209586746</v>
       </c>
       <c r="G5">
-        <v>0.4769773795938949</v>
+        <v>0.47697737959389491</v>
       </c>
       <c r="H5">
-        <v>0.1951067484177975</v>
+        <v>0.19510674841779749</v>
       </c>
       <c r="I5">
-        <v>0.0350418894863351</v>
+        <v>3.5041889486335097E-2</v>
       </c>
       <c r="J5">
         <v>0.4026496767265898</v>
@@ -2915,22 +2996,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5411654228362874</v>
+        <v>0.54116542283628744</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8211930185118667</v>
+        <v>0.82119301851186666</v>
       </c>
       <c r="E6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="F6">
-        <v>0.8869529424214169</v>
+        <v>0.88695294242141687</v>
       </c>
       <c r="G6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2939,7 +3020,7 @@
         <v>0.1130470575785834</v>
       </c>
       <c r="J6">
-        <v>0.3457875195851293</v>
+        <v>0.34578751958512932</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2947,31 +3028,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3636189889156664</v>
+        <v>0.36361898891566641</v>
       </c>
       <c r="C7">
         <v>0.817905929833041</v>
       </c>
       <c r="D7">
-        <v>1.000794282198359</v>
+        <v>1.0007942821983591</v>
       </c>
       <c r="E7">
-        <v>0.450140373041462</v>
+        <v>0.45014037304146198</v>
       </c>
       <c r="F7">
-        <v>0.8077902154361387</v>
+        <v>0.80779021543613871</v>
       </c>
       <c r="G7">
-        <v>0.450140373041462</v>
+        <v>0.45014037304146198</v>
       </c>
       <c r="H7">
         <v>0.182091664063321</v>
       </c>
       <c r="I7">
-        <v>8.02537979474391E-06</v>
+        <v>8.0253797947439097E-6</v>
       </c>
       <c r="J7">
-        <v>0.4441712265204723</v>
+        <v>0.44417122652047231</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2979,31 +3060,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5295255925716049</v>
+        <v>0.52952559257160492</v>
       </c>
       <c r="C8">
-        <v>0.7212221830631119</v>
+        <v>0.72122218306311192</v>
       </c>
       <c r="D8">
-        <v>1.000235849685653</v>
+        <v>1.0002358496856529</v>
       </c>
       <c r="E8">
-        <v>0.7592805727058238</v>
+        <v>0.75928057270582383</v>
       </c>
       <c r="F8">
-        <v>0.6974043740965893</v>
+        <v>0.69740437409658929</v>
       </c>
       <c r="G8">
-        <v>0.7592805727058238</v>
+        <v>0.75928057270582383</v>
       </c>
       <c r="H8">
-        <v>0.2787759953998444</v>
+        <v>0.27877599539984438</v>
       </c>
       <c r="I8">
-        <v>5.615854831640393E-06</v>
+        <v>5.6158548316403934E-6</v>
       </c>
       <c r="J8">
-        <v>0.1678787815249843</v>
+        <v>0.16787878152498431</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3011,31 +3092,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5954212540559204</v>
+        <v>0.59542125405592039</v>
       </c>
       <c r="C9">
-        <v>0.7753850707761217</v>
+        <v>0.77538507077612173</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7678918832681794</v>
+        <v>0.76789188326817936</v>
       </c>
       <c r="F9">
-        <v>0.7753798148105066</v>
+        <v>0.77537981481050655</v>
       </c>
       <c r="G9">
-        <v>0.7678918832681794</v>
+        <v>0.76789188326817936</v>
       </c>
       <c r="H9">
-        <v>0.2246096731870068</v>
+        <v>0.22460967318700681</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1799690727570729</v>
+        <v>0.17996907275707291</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3043,31 +3124,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4610335439350959</v>
+        <v>0.46103354393509588</v>
       </c>
       <c r="C10">
-        <v>0.7263919629801872</v>
+        <v>0.72639196298018716</v>
       </c>
       <c r="D10">
-        <v>0.5659593946024035</v>
+        <v>0.56595939460240352</v>
       </c>
       <c r="E10">
-        <v>0.634692493219191</v>
+        <v>0.63469249321919097</v>
       </c>
       <c r="F10">
-        <v>0.7263888400455338</v>
+        <v>0.72638884004553383</v>
       </c>
       <c r="G10">
-        <v>0.634692493219191</v>
+        <v>0.63469249321919097</v>
       </c>
       <c r="H10">
-        <v>0.2736051995662969</v>
+        <v>0.27360519956629692</v>
       </c>
       <c r="I10">
-        <v>5.960388169185158E-06</v>
+        <v>5.9603881691851583E-6</v>
       </c>
       <c r="J10">
-        <v>0.265355296110438</v>
+        <v>0.26535529611043801</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3075,13 +3156,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.899126793243976</v>
+        <v>0.89912679324397604</v>
       </c>
       <c r="C11">
-        <v>0.9729105343269113</v>
+        <v>0.97291053432691132</v>
       </c>
       <c r="D11">
-        <v>0.252211075806379</v>
+        <v>0.25221107580637903</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3093,10 +3174,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.02431734436185906</v>
+        <v>2.4317344361859061E-2</v>
       </c>
       <c r="I11">
-        <v>0.07655586239416531</v>
+        <v>7.6555862394165314E-2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3107,25 +3188,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5086053245515481</v>
+        <v>0.50860532455154805</v>
       </c>
       <c r="C12">
-        <v>0.9349777437146505</v>
+        <v>0.93497774371465048</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="F12">
-        <v>0.9624970775204779</v>
+        <v>0.96249707752047786</v>
       </c>
       <c r="G12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="H12">
-        <v>0.03750292247952211</v>
+        <v>3.7502922479522111E-2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3139,7 +3220,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3148,13 +3229,13 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3171,31 +3252,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.7225608339141505</v>
+        <v>0.72256083391415049</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.7694712978725325</v>
+        <v>0.76947129787253254</v>
       </c>
       <c r="E14">
-        <v>0.748472006190682</v>
+        <v>0.74847200619068199</v>
       </c>
       <c r="F14">
-        <v>0.9653812406312892</v>
+        <v>0.96538124063128916</v>
       </c>
       <c r="G14">
-        <v>0.748472006190682</v>
+        <v>0.74847200619068199</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03461875936871102</v>
+        <v>3.4618759368711019E-2</v>
       </c>
       <c r="J14">
-        <v>0.2428204067171386</v>
+        <v>0.24282040671713859</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3203,10 +3284,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.5245850049809125</v>
+        <v>0.52458500498091254</v>
       </c>
       <c r="C15">
-        <v>0.6990833131810729</v>
+        <v>0.69908331318107286</v>
       </c>
       <c r="D15">
         <v>1.000196018297574</v>
@@ -3215,16 +3296,16 @@
         <v>0.8100803169229801</v>
       </c>
       <c r="F15">
-        <v>0.6475715975589967</v>
+        <v>0.64757159755899674</v>
       </c>
       <c r="G15">
         <v>0.8100803169229801</v>
       </c>
       <c r="H15">
-        <v>0.3009158033756815</v>
+        <v>0.30091580337568152</v>
       </c>
       <c r="I15">
-        <v>1.00950772328979E-05</v>
+        <v>1.00950772328979E-5</v>
       </c>
       <c r="J15">
         <v>0.122986592578084</v>
@@ -3238,28 +3319,28 @@
         <v>0.6350877214498859</v>
       </c>
       <c r="C16">
-        <v>0.8599230155504552</v>
+        <v>0.85992301555045525</v>
       </c>
       <c r="D16">
-        <v>0.7135359935885549</v>
+        <v>0.71353599358855491</v>
       </c>
       <c r="E16">
-        <v>0.7552440400994799</v>
+        <v>0.75524404009947987</v>
       </c>
       <c r="F16">
         <v>0.8324260375223359</v>
       </c>
       <c r="G16">
-        <v>0.7552440400994799</v>
+        <v>0.75524404009947987</v>
       </c>
       <c r="H16">
-        <v>0.1366706090042475</v>
+        <v>0.13667060900424749</v>
       </c>
       <c r="I16">
-        <v>0.02480070163341281</v>
+        <v>2.480070163341281E-2</v>
       </c>
       <c r="J16">
-        <v>0.1973390669297702</v>
+        <v>0.19733906692977021</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3267,13 +3348,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.2066691028207915</v>
+        <v>0.20666910282079151</v>
       </c>
       <c r="C17">
-        <v>0.12455374161644</v>
+        <v>0.12455374161644001</v>
       </c>
       <c r="D17">
-        <v>0.3669993430604869</v>
+        <v>0.36699934306048693</v>
       </c>
       <c r="E17">
         <v>0.1828362143188611</v>
@@ -3285,16 +3366,17 @@
         <v>0.1828362143188611</v>
       </c>
       <c r="H17">
-        <v>0.1244874272386051</v>
+        <v>0.12448742723860511</v>
       </c>
       <c r="I17">
-        <v>0.03657863832206926</v>
+        <v>3.6578638322069257E-2</v>
       </c>
       <c r="J17">
         <v>0.1557156800201204</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/nonlife_2019_result.xlsx
+++ b/result/nonlife_2019_result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/result/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DCCF78-F5FF-3C46-B9C9-FC51AD977A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="VRS" sheetId="4" r:id="rId4"/>
     <sheet name="VRS_Z1split" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -134,12 +128,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -147,15 +141,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,23 +188,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -259,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,27 +270,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,24 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,12 +479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -1073,31 +1016,31 @@
         <v>1737419</v>
       </c>
       <c r="C16">
-        <v>2371124.5714285709</v>
+        <v>2371124.571428571</v>
       </c>
       <c r="D16">
-        <v>1185562.2857142859</v>
+        <v>1185562.285714286</v>
       </c>
       <c r="E16">
-        <v>1185562.2857142859</v>
+        <v>1185562.285714286</v>
       </c>
       <c r="F16">
-        <v>12298852.428571429</v>
+        <v>12298852.42857143</v>
       </c>
       <c r="G16">
-        <v>3553848.3571428568</v>
+        <v>3553848.357142857</v>
       </c>
       <c r="H16">
-        <v>8745004.0714285709</v>
+        <v>8745004.071428571</v>
       </c>
       <c r="I16">
-        <v>1235975.2857142859</v>
+        <v>1235975.285714286</v>
       </c>
       <c r="J16">
-        <v>603621.35714285716</v>
+        <v>603621.3571428572</v>
       </c>
       <c r="K16">
-        <v>626914.71428571432</v>
+        <v>626914.7142857143</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1108,51 +1051,45 @@
         <v>1199097.295664256</v>
       </c>
       <c r="C17">
-        <v>1725853.5782970199</v>
+        <v>1725853.57829702</v>
       </c>
       <c r="D17">
-        <v>862926.78914851008</v>
+        <v>862926.7891485101</v>
       </c>
       <c r="E17">
-        <v>862926.78914851008</v>
+        <v>862926.7891485101</v>
       </c>
       <c r="F17">
         <v>9392045.831334604</v>
       </c>
       <c r="G17">
-        <v>2306258.3423450659</v>
+        <v>2306258.342345066</v>
       </c>
       <c r="H17">
-        <v>7164332.0681660334</v>
+        <v>7164332.068166033</v>
       </c>
       <c r="I17">
-        <v>783281.34601231059</v>
+        <v>783281.3460123106</v>
       </c>
       <c r="J17">
         <v>604084.1180162034</v>
       </c>
       <c r="K17">
-        <v>723132.42727017647</v>
+        <v>723132.4272701765</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -1188,28 +1125,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.86989370271919253</v>
+        <v>0.8698937027191925</v>
       </c>
       <c r="C2">
-        <v>0.95493166728083234</v>
+        <v>0.9549316672808323</v>
       </c>
       <c r="D2">
-        <v>0.72341046983342405</v>
+        <v>0.7234104698334241</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.86989370271919264</v>
+        <v>0.8698937027191926</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>4.5068050667119608E-2</v>
+        <v>0.04506805066711961</v>
       </c>
       <c r="I2">
-        <v>8.5038246613687807E-2</v>
+        <v>0.08503824661368781</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1220,19 +1157,19 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.48165819210789002</v>
+        <v>0.48165819210789</v>
       </c>
       <c r="C3">
         <v>0.8907835627793631</v>
       </c>
       <c r="D3">
-        <v>0.84538419427159284</v>
+        <v>0.8453841942715928</v>
       </c>
       <c r="E3">
         <v>0.5823782919932915</v>
       </c>
       <c r="F3">
-        <v>0.82705382176820263</v>
+        <v>0.8270538217682026</v>
       </c>
       <c r="G3">
         <v>0.5823782919932915</v>
@@ -1241,10 +1178,10 @@
         <v>0.1092156858350304</v>
       </c>
       <c r="I3">
-        <v>6.3730492396766925E-2</v>
+        <v>0.06373049239676692</v>
       </c>
       <c r="J3">
-        <v>0.34539562966031268</v>
+        <v>0.3453956296603127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1252,28 +1189,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.92630619286022486</v>
+        <v>0.9263061928602249</v>
       </c>
       <c r="C4">
         <v>0.9992048628102681</v>
       </c>
       <c r="D4">
-        <v>0.72326210398723578</v>
+        <v>0.7232621039872358</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.92630619286022486</v>
+        <v>0.9263061928602249</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>7.9510552004580237E-4</v>
+        <v>0.0007951055200458024</v>
       </c>
       <c r="I4">
-        <v>7.2898701619729389E-2</v>
+        <v>0.07289870161972939</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1284,31 +1221,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.34873837225653442</v>
+        <v>0.3487383722565344</v>
       </c>
       <c r="C5">
         <v>0.7840324585375722</v>
       </c>
       <c r="D5">
-        <v>0.79163832464965467</v>
+        <v>0.7916383246496547</v>
       </c>
       <c r="E5">
-        <v>0.46732969003490471</v>
+        <v>0.4673296900349047</v>
       </c>
       <c r="F5">
-        <v>0.74623628605853676</v>
+        <v>0.7462362860585368</v>
       </c>
       <c r="G5">
-        <v>0.46732969003490471</v>
+        <v>0.4673296900349047</v>
       </c>
       <c r="H5">
-        <v>0.21596561949276749</v>
+        <v>0.2159656194927675</v>
       </c>
       <c r="I5">
-        <v>3.779809444869589E-2</v>
+        <v>0.03779809444869589</v>
       </c>
       <c r="J5">
-        <v>0.39749791380200222</v>
+        <v>0.3974979138020022</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1316,31 +1253,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.54047740342049089</v>
+        <v>0.5404774034204909</v>
       </c>
       <c r="C6">
-        <v>0.99781677104078292</v>
+        <v>0.9978167710407829</v>
       </c>
       <c r="D6">
-        <v>0.82862437127029276</v>
+        <v>0.8286243712702928</v>
       </c>
       <c r="E6">
-        <v>0.60796854674265111</v>
+        <v>0.6079685467426511</v>
       </c>
       <c r="F6">
-        <v>0.88898908720893288</v>
+        <v>0.8889890872089329</v>
       </c>
       <c r="G6">
-        <v>0.60796854674265111</v>
+        <v>0.6079685467426511</v>
       </c>
       <c r="H6">
-        <v>1.2566351017561091E-3</v>
+        <v>0.001256635101756109</v>
       </c>
       <c r="I6">
-        <v>0.10975427768931099</v>
+        <v>0.109754277689311</v>
       </c>
       <c r="J6">
-        <v>0.34851168378844188</v>
+        <v>0.3485116837884419</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1348,31 +1285,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.34642755681944382</v>
+        <v>0.3464275568194438</v>
       </c>
       <c r="C7">
-        <v>0.93299777179704735</v>
+        <v>0.9329977717970473</v>
       </c>
       <c r="D7">
-        <v>0.54720384440211656</v>
+        <v>0.5472038444021166</v>
       </c>
       <c r="E7">
-        <v>0.43717898886312739</v>
+        <v>0.4371789888631274</v>
       </c>
       <c r="F7">
-        <v>0.79241584258273634</v>
+        <v>0.7924158425827363</v>
       </c>
       <c r="G7">
-        <v>0.43717898886312739</v>
+        <v>0.4371789888631274</v>
       </c>
       <c r="H7">
-        <v>6.7001342867670233E-2</v>
+        <v>0.06700134286767023</v>
       </c>
       <c r="I7">
-        <v>0.14058281454959359</v>
+        <v>0.1405828145495936</v>
       </c>
       <c r="J7">
-        <v>0.44598828576329241</v>
+        <v>0.4459882857632924</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1380,31 +1317,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.50449129436161366</v>
+        <v>0.5044912943616137</v>
       </c>
       <c r="C8">
-        <v>0.94131104991788705</v>
+        <v>0.9413110499178871</v>
       </c>
       <c r="D8">
         <v>0.9453271673109559</v>
       </c>
       <c r="E8">
-        <v>0.54807918235984954</v>
+        <v>0.5480791823598495</v>
       </c>
       <c r="F8">
         <v>0.9204715497301672</v>
       </c>
       <c r="G8">
-        <v>0.54807918235984954</v>
+        <v>0.5480791823598495</v>
       </c>
       <c r="H8">
-        <v>5.8688566607926318E-2</v>
+        <v>0.05868856660792632</v>
       </c>
       <c r="I8">
-        <v>2.083988366190653E-2</v>
+        <v>0.02083988366190653</v>
       </c>
       <c r="J8">
-        <v>0.41598025536855332</v>
+        <v>0.4159802553685533</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1412,31 +1349,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.59139664982434015</v>
+        <v>0.5913966498243401</v>
       </c>
       <c r="C9">
-        <v>0.81704002241052764</v>
+        <v>0.8170400224105276</v>
       </c>
       <c r="D9">
-        <v>0.79472032095734302</v>
+        <v>0.794720320957343</v>
       </c>
       <c r="E9">
-        <v>0.76781819172325816</v>
+        <v>0.7678181917232582</v>
       </c>
       <c r="F9">
-        <v>0.77023005732259997</v>
+        <v>0.7702300573226</v>
       </c>
       <c r="G9">
-        <v>0.76781819172325816</v>
+        <v>0.7678181917232582</v>
       </c>
       <c r="H9">
-        <v>0.18295873737422369</v>
+        <v>0.1829587373742237</v>
       </c>
       <c r="I9">
-        <v>4.6811205303176173E-2</v>
+        <v>0.04681120530317617</v>
       </c>
       <c r="J9">
-        <v>0.17883340749825979</v>
+        <v>0.1788334074982598</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1444,31 +1381,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.45021117574332148</v>
+        <v>0.4502111757433215</v>
       </c>
       <c r="C10">
-        <v>0.82193104104221171</v>
+        <v>0.8219310410422117</v>
       </c>
       <c r="D10">
-        <v>0.67505328302771261</v>
+        <v>0.6750532830277126</v>
       </c>
       <c r="E10">
-        <v>0.61324318046734283</v>
+        <v>0.6132431804673428</v>
       </c>
       <c r="F10">
         <v>0.7341478716489318</v>
       </c>
       <c r="G10">
-        <v>0.61324318046734283</v>
+        <v>0.6132431804673428</v>
       </c>
       <c r="H10">
-        <v>0.17806711229275901</v>
+        <v>0.178067112292759</v>
       </c>
       <c r="I10">
-        <v>8.7785016058309101E-2</v>
+        <v>0.0877850160583091</v>
       </c>
       <c r="J10">
-        <v>0.28393669590561038</v>
+        <v>0.2839366959056104</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1476,31 +1413,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.70716930019866875</v>
+        <v>0.7071693001986687</v>
       </c>
       <c r="C11">
-        <v>0.94505449546204601</v>
+        <v>0.945054495462046</v>
       </c>
       <c r="D11">
-        <v>0.56192569965895678</v>
+        <v>0.5619256996589568</v>
       </c>
       <c r="E11">
-        <v>0.83462046958191904</v>
+        <v>0.834620469581919</v>
       </c>
       <c r="F11">
-        <v>0.84729446014295151</v>
+        <v>0.8472944601429515</v>
       </c>
       <c r="G11">
-        <v>0.83462046958191904</v>
+        <v>0.834620469581919</v>
       </c>
       <c r="H11">
-        <v>5.494459591898071E-2</v>
+        <v>0.05494459591898071</v>
       </c>
       <c r="I11">
-        <v>9.7760943938067751E-2</v>
+        <v>0.09776094393806775</v>
       </c>
       <c r="J11">
-        <v>0.14012515994428301</v>
+        <v>0.140125159944283</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1508,31 +1445,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.50845250465298841</v>
+        <v>0.5084525046529884</v>
       </c>
       <c r="C12">
-        <v>0.94601025266334648</v>
+        <v>0.9460102526633465</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.52487228233335836</v>
+        <v>0.5248722823333584</v>
       </c>
       <c r="F12">
-        <v>0.96871662262793801</v>
+        <v>0.968716622627938</v>
       </c>
       <c r="G12">
-        <v>0.52487228233335836</v>
+        <v>0.5248722823333584</v>
       </c>
       <c r="H12">
-        <v>3.1283377372062049E-2</v>
+        <v>0.03128337737206205</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.46026411797494948</v>
+        <v>0.4602641179749495</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1540,28 +1477,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.70095873147578858</v>
+        <v>0.7009587314757886</v>
       </c>
       <c r="C13">
-        <v>0.97500164379592835</v>
+        <v>0.9750016437959284</v>
       </c>
       <c r="D13">
-        <v>0.78445123322673915</v>
+        <v>0.7844512332267392</v>
       </c>
       <c r="E13">
-        <v>0.79208681497461597</v>
+        <v>0.792086814974616</v>
       </c>
       <c r="F13">
-        <v>0.88495189949381015</v>
+        <v>0.8849518994938101</v>
       </c>
       <c r="G13">
-        <v>0.79208681497461597</v>
+        <v>0.792086814974616</v>
       </c>
       <c r="H13">
-        <v>1.794592313439047E-2</v>
+        <v>0.01794592313439047</v>
       </c>
       <c r="I13">
-        <v>9.710217737179927E-2</v>
+        <v>0.09710217737179927</v>
       </c>
       <c r="J13">
         <v>0.1839931680180216</v>
@@ -1572,31 +1509,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.64029029437499518</v>
+        <v>0.6402902943749952</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.76948130237352597</v>
+        <v>0.769481302373526</v>
       </c>
       <c r="E14">
-        <v>0.67785181665953465</v>
+        <v>0.6778518166595346</v>
       </c>
       <c r="F14">
-        <v>0.94458741370696153</v>
+        <v>0.9445874137069615</v>
       </c>
       <c r="G14">
-        <v>0.67785181665953465</v>
+        <v>0.6778518166595346</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.5412586293038607E-2</v>
+        <v>0.05541258629303861</v>
       </c>
       <c r="J14">
-        <v>0.30429711933196618</v>
+        <v>0.3042971193319662</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1604,31 +1541,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.49978462938427293</v>
+        <v>0.4997846293842729</v>
       </c>
       <c r="C15">
-        <v>0.81516571716813513</v>
+        <v>0.8151657171681351</v>
       </c>
       <c r="D15">
-        <v>0.98862927020119684</v>
+        <v>0.9886292702011968</v>
       </c>
       <c r="E15">
-        <v>0.61526051670634518</v>
+        <v>0.6152605167063452</v>
       </c>
       <c r="F15">
-        <v>0.81231383424334525</v>
+        <v>0.8123138342433452</v>
       </c>
       <c r="G15">
-        <v>0.61526051670634518</v>
+        <v>0.6152605167063452</v>
       </c>
       <c r="H15">
-        <v>0.18483374018798401</v>
+        <v>0.184833740187984</v>
       </c>
       <c r="I15">
-        <v>2.8524255686708799E-3</v>
+        <v>0.00285242556867088</v>
       </c>
       <c r="J15">
-        <v>0.31252920485907221</v>
+        <v>0.3125292048590722</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1636,31 +1573,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.57973257144284052</v>
+        <v>0.5797325714428405</v>
       </c>
       <c r="C16">
         <v>0.915805808336139</v>
       </c>
       <c r="D16">
-        <v>0.78422225608362484</v>
+        <v>0.7842222560836248</v>
       </c>
       <c r="E16">
-        <v>0.67633485517429992</v>
+        <v>0.6763348551742999</v>
       </c>
       <c r="F16">
-        <v>0.85240061729389516</v>
+        <v>0.8524006172938952</v>
       </c>
       <c r="G16">
-        <v>0.67633485517429992</v>
+        <v>0.6763348551742999</v>
       </c>
       <c r="H16">
-        <v>8.2001749455193992E-2</v>
+        <v>0.08200174945519399</v>
       </c>
       <c r="I16">
-        <v>6.5597633250910919E-2</v>
+        <v>0.06559763325091092</v>
       </c>
       <c r="J16">
-        <v>0.27266804585105459</v>
+        <v>0.2726680458510546</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1671,48 +1608,42 @@
         <v>0.1616384056045565</v>
       </c>
       <c r="C17">
-        <v>7.0807074001787748E-2</v>
+        <v>0.07080707400178775</v>
       </c>
       <c r="D17">
         <v>0.1278847151034711</v>
       </c>
       <c r="E17">
-        <v>0.16689800159998619</v>
+        <v>0.1668980015999862</v>
       </c>
       <c r="F17">
-        <v>6.9621859055695692E-2</v>
+        <v>0.06962185905569569</v>
       </c>
       <c r="G17">
-        <v>0.16689800159998619</v>
+        <v>0.1668980015999862</v>
       </c>
       <c r="H17">
-        <v>7.2139211901610559E-2</v>
+        <v>0.07213921190161056</v>
       </c>
       <c r="I17">
-        <v>3.8296524535788169E-2</v>
+        <v>0.03829652453578817</v>
       </c>
       <c r="J17">
         <v>0.140959200992471</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -1748,28 +1679,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.87035094117195222</v>
+        <v>0.8703509411719522</v>
       </c>
       <c r="C2">
-        <v>0.95760738620362373</v>
+        <v>0.9576073862036237</v>
       </c>
       <c r="D2">
-        <v>0.72341053899577346</v>
+        <v>0.7234105389957735</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.87035094117195233</v>
+        <v>0.8703509411719523</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>4.2392348489833642E-2</v>
+        <v>0.04239234848983364</v>
       </c>
       <c r="I2">
-        <v>8.7256710338214111E-2</v>
+        <v>0.08725671033821411</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1780,28 +1711,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.50366523878605018</v>
+        <v>0.5036652387860502</v>
       </c>
       <c r="C3">
-        <v>0.63006811836963827</v>
+        <v>0.6300681183696383</v>
       </c>
       <c r="D3">
-        <v>0.83139262936773095</v>
+        <v>0.831392629367731</v>
       </c>
       <c r="E3">
-        <v>0.79939016440536947</v>
+        <v>0.7993901644053695</v>
       </c>
       <c r="F3">
-        <v>0.63006184115450592</v>
+        <v>0.6300618411545059</v>
       </c>
       <c r="G3">
-        <v>0.79939016440536947</v>
+        <v>0.7993901644053695</v>
       </c>
       <c r="H3">
-        <v>0.36993260342023221</v>
+        <v>0.3699326034202322</v>
       </c>
       <c r="I3">
-        <v>5.5554252619136786E-6</v>
+        <v>5.555425261913679E-06</v>
       </c>
       <c r="J3">
         <v>0.1263966023684556</v>
@@ -1812,28 +1743,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.96863086007115118</v>
+        <v>0.9686297625874041</v>
       </c>
       <c r="C4">
-        <v>0.96864211769433151</v>
+        <v>0.9686465999453008</v>
       </c>
       <c r="D4">
-        <v>1.608605976524305</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.9999627446967595</v>
       </c>
       <c r="F4">
-        <v>0.96863086007115118</v>
+        <v>0.9686297625774042</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.9999627446967595</v>
       </c>
       <c r="H4">
-        <v>3.1356633345988927E-2</v>
+        <v>0.03135215127354418</v>
       </c>
       <c r="I4">
-        <v>1.250658285979399E-5</v>
+        <v>1.808613905157683E-05</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1844,31 +1775,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.36467222103623492</v>
+        <v>0.3646722210362349</v>
       </c>
       <c r="C5">
-        <v>0.79332463346747151</v>
+        <v>0.7933246334674715</v>
       </c>
       <c r="D5">
-        <v>0.84547889200582838</v>
+        <v>0.8454788920058284</v>
       </c>
       <c r="E5">
-        <v>0.45967771387314438</v>
+        <v>0.4596777138731444</v>
       </c>
       <c r="F5">
-        <v>0.79332151642416182</v>
+        <v>0.7933215164241618</v>
       </c>
       <c r="G5">
-        <v>0.45967771387314438</v>
+        <v>0.4596777138731444</v>
       </c>
       <c r="H5">
-        <v>0.20667588816055191</v>
+        <v>0.2066758881605519</v>
       </c>
       <c r="I5">
-        <v>2.5954152863371919E-6</v>
+        <v>2.595415286337192E-06</v>
       </c>
       <c r="J5">
-        <v>0.42864929538792679</v>
+        <v>0.4286492953879268</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1876,22 +1807,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.54116542283628744</v>
+        <v>0.5411654228362874</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.82119301851186666</v>
+        <v>0.8211930185118667</v>
       </c>
       <c r="E6">
-        <v>0.61013994875408417</v>
+        <v>0.6101399487540842</v>
       </c>
       <c r="F6">
-        <v>0.88695294242141687</v>
+        <v>0.8869529424214169</v>
       </c>
       <c r="G6">
-        <v>0.61013994875408417</v>
+        <v>0.6101399487540842</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1900,7 +1831,7 @@
         <v>0.1130470575785834</v>
       </c>
       <c r="J6">
-        <v>0.34578751958512932</v>
+        <v>0.3457875195851293</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1908,31 +1839,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.36225670343979688</v>
+        <v>0.3622565733570946</v>
       </c>
       <c r="C7">
-        <v>0.81951137736065593</v>
+        <v>0.819516652959023</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4420385844954075</v>
+        <v>0.4420328246333906</v>
       </c>
       <c r="F7">
-        <v>0.81951376225068095</v>
+        <v>0.8195139469952696</v>
       </c>
       <c r="G7">
-        <v>0.4420385844954075</v>
+        <v>0.4420328246333906</v>
       </c>
       <c r="H7">
-        <v>0.18048623774931921</v>
+        <v>0.1804809622206611</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5.090781242914796E-06</v>
       </c>
       <c r="J7">
-        <v>0.45725705881088402</v>
+        <v>0.4572573736410013</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1940,31 +1871,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.52754148317599858</v>
+        <v>0.5275414831759986</v>
       </c>
       <c r="C8">
-        <v>0.73739992564433998</v>
+        <v>0.73739992564434</v>
       </c>
       <c r="D8">
-        <v>0.90769574516686025</v>
+        <v>0.9076957451668602</v>
       </c>
       <c r="E8">
-        <v>0.71540840664684668</v>
+        <v>0.7154084066468467</v>
       </c>
       <c r="F8">
-        <v>0.73739905524539562</v>
+        <v>0.7373990552453956</v>
       </c>
       <c r="G8">
-        <v>0.71540840664684668</v>
+        <v>0.7154084066468467</v>
       </c>
       <c r="H8">
-        <v>0.26259835852414809</v>
+        <v>0.2625983585241481</v>
       </c>
       <c r="I8">
-        <v>2.5862304562125191E-6</v>
+        <v>2.586230456212519E-06</v>
       </c>
       <c r="J8">
-        <v>0.20985757206939701</v>
+        <v>0.209857572069397</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1972,31 +1903,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.59542125405592039</v>
+        <v>0.5954212540559204</v>
       </c>
       <c r="C9">
-        <v>0.77539032681299325</v>
+        <v>0.7753903268129932</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.76789188326817936</v>
+        <v>0.7678918832681794</v>
       </c>
       <c r="F9">
-        <v>0.77537981481050655</v>
+        <v>0.7753798148105066</v>
       </c>
       <c r="G9">
-        <v>0.76789188326817936</v>
+        <v>0.7678918832681794</v>
       </c>
       <c r="H9">
-        <v>0.22460967318700681</v>
+        <v>0.2246096731870068</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.17996907275707291</v>
+        <v>0.1799690727570729</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2004,10 +1935,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.46103466202064253</v>
+        <v>0.4610346620206425</v>
       </c>
       <c r="C10">
-        <v>0.72638954427166169</v>
+        <v>0.7263895442716617</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2016,19 +1947,19 @@
         <v>0.6346847939942486</v>
       </c>
       <c r="F10">
-        <v>0.72637447853133874</v>
+        <v>0.7263744785313387</v>
       </c>
       <c r="G10">
         <v>0.6346847939942486</v>
       </c>
       <c r="H10">
-        <v>0.27361045572833831</v>
+        <v>0.2736104557283383</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.26535488225101928</v>
+        <v>0.2653548822510193</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2036,31 +1967,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.70776713301091609</v>
+        <v>0.7077671330109161</v>
       </c>
       <c r="C11">
         <v>0.9438857936185312</v>
       </c>
       <c r="D11">
-        <v>0.56591866880016994</v>
+        <v>0.5659186688001699</v>
       </c>
       <c r="E11">
-        <v>0.83769474231752128</v>
+        <v>0.8376947423175213</v>
       </c>
       <c r="F11">
-        <v>0.84489862148692207</v>
+        <v>0.8448986214869221</v>
       </c>
       <c r="G11">
-        <v>0.83769474231752128</v>
+        <v>0.8376947423175213</v>
       </c>
       <c r="H11">
-        <v>5.6391760979662919E-2</v>
+        <v>0.05639176097966292</v>
       </c>
       <c r="I11">
-        <v>9.8709617533414923E-2</v>
+        <v>0.09870961753341492</v>
       </c>
       <c r="J11">
-        <v>0.13713148847600609</v>
+        <v>0.1371314884760061</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2068,25 +1999,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.50860532455154805</v>
+        <v>0.5086053245515481</v>
       </c>
       <c r="C12">
-        <v>0.93497774371465048</v>
+        <v>0.9349777437146505</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.52842272088948461</v>
+        <v>0.5284227208894846</v>
       </c>
       <c r="F12">
-        <v>0.96249707752047786</v>
+        <v>0.9624970775204779</v>
       </c>
       <c r="G12">
-        <v>0.52842272088948461</v>
+        <v>0.5284227208894846</v>
       </c>
       <c r="H12">
-        <v>3.7502922479522111E-2</v>
+        <v>0.03750292247952211</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2100,28 +2031,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.70134472864826047</v>
+        <v>0.7013447286482605</v>
       </c>
       <c r="C13">
-        <v>0.96211392549078067</v>
+        <v>0.9621139254907807</v>
       </c>
       <c r="D13">
-        <v>0.76311293872938457</v>
+        <v>0.7631129387293846</v>
       </c>
       <c r="E13">
-        <v>0.77764425535062043</v>
+        <v>0.7776442553506204</v>
       </c>
       <c r="F13">
-        <v>0.90188376474541254</v>
+        <v>0.9018837647454125</v>
       </c>
       <c r="G13">
-        <v>0.77764425535062043</v>
+        <v>0.7776442553506204</v>
       </c>
       <c r="H13">
-        <v>3.0298822144476659E-2</v>
+        <v>0.03029882214447666</v>
       </c>
       <c r="I13">
-        <v>6.781741311011083E-2</v>
+        <v>0.06781741311011083</v>
       </c>
       <c r="J13">
         <v>0.2005390360971521</v>
@@ -2132,7 +2063,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.64062669308993214</v>
+        <v>0.6406266930899321</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2141,19 +2072,19 @@
         <v>0.7694817255995211</v>
       </c>
       <c r="E14">
-        <v>0.67924689289519469</v>
+        <v>0.6792468928951947</v>
       </c>
       <c r="F14">
-        <v>0.94314261837746616</v>
+        <v>0.9431426183774662</v>
       </c>
       <c r="G14">
-        <v>0.67924689289519469</v>
+        <v>0.6792468928951947</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.6857381622534182E-2</v>
+        <v>0.05685738162253418</v>
       </c>
       <c r="J14">
         <v>0.3025159252875339</v>
@@ -2167,28 +2098,28 @@
         <v>0.5226205182399345</v>
       </c>
       <c r="C15">
-        <v>0.74288031254039477</v>
+        <v>0.7428803125403948</v>
       </c>
       <c r="D15">
-        <v>0.85436944818583671</v>
+        <v>0.8543694481858367</v>
       </c>
       <c r="E15">
-        <v>0.70350627019455148</v>
+        <v>0.7035062701945515</v>
       </c>
       <c r="F15">
-        <v>0.74287968761871337</v>
+        <v>0.7428796876187134</v>
       </c>
       <c r="G15">
-        <v>0.70350627019455148</v>
+        <v>0.7035062701945515</v>
       </c>
       <c r="H15">
         <v>0.2571189325973422</v>
       </c>
       <c r="I15">
-        <v>1.3797839446908789E-6</v>
+        <v>1.379783944690879E-06</v>
       </c>
       <c r="J15">
-        <v>0.22025916937877851</v>
+        <v>0.2202591693787785</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2196,31 +2127,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.59112165600961608</v>
+        <v>0.5911215683262983</v>
       </c>
       <c r="C16">
-        <v>0.85658508608493389</v>
+        <v>0.8565857830741722</v>
       </c>
       <c r="D16">
-        <v>0.76361854156337705</v>
+        <v>0.5772895432402123</v>
       </c>
       <c r="E16">
-        <v>0.71112474122033242</v>
+        <v>0.7111216687085283</v>
       </c>
       <c r="F16">
-        <v>0.8288062129878645</v>
+        <v>0.828806147791496</v>
       </c>
       <c r="G16">
-        <v>0.71112474122033242</v>
+        <v>0.7111216687085283</v>
       </c>
       <c r="H16">
-        <v>0.14092675977188729</v>
+        <v>0.14092606280038</v>
       </c>
       <c r="I16">
-        <v>3.0265200258619031E-2</v>
+        <v>0.03026596242557864</v>
       </c>
       <c r="J16">
-        <v>0.23768638395987751</v>
+        <v>0.237686406447743</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2228,51 +2159,45 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.16227053534279701</v>
+        <v>0.1622703773603373</v>
       </c>
       <c r="C17">
-        <v>0.114357551628679</v>
+        <v>0.1143577304258276</v>
       </c>
       <c r="D17">
-        <v>0.37205039934461859</v>
+        <v>0.3639239985735154</v>
       </c>
       <c r="E17">
-        <v>0.1601046557797749</v>
+        <v>0.1601008200794965</v>
       </c>
       <c r="F17">
-        <v>9.3499878329921474E-2</v>
+        <v>0.09349976768955784</v>
       </c>
       <c r="G17">
-        <v>0.1601046557797749</v>
+        <v>0.1601008200794965</v>
       </c>
       <c r="H17">
-        <v>0.1162642139043687</v>
+        <v>0.1162643758484087</v>
       </c>
       <c r="I17">
-        <v>4.0943188309834941E-2</v>
+        <v>0.04094266262575651</v>
       </c>
       <c r="J17">
-        <v>0.13888912794291339</v>
+        <v>0.1388891611240559</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="9.796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -2308,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.86989370271919242</v>
+        <v>0.8698937027191925</v>
       </c>
       <c r="C2">
-        <v>0.95493166728083234</v>
+        <v>0.9549316672808323</v>
       </c>
       <c r="D2">
-        <v>0.72341046983342405</v>
+        <v>0.7234104698334241</v>
       </c>
       <c r="E2">
-        <v>1.000000000011495</v>
+        <v>1.000000000011496</v>
       </c>
       <c r="F2">
-        <v>0.86989370271919264</v>
+        <v>0.8698937027191926</v>
       </c>
       <c r="G2">
-        <v>1.000000000011495</v>
+        <v>1.000000000011496</v>
       </c>
       <c r="H2">
-        <v>4.5068050667119608E-2</v>
+        <v>0.04506805066711961</v>
       </c>
       <c r="I2">
-        <v>8.5038246613687807E-2</v>
+        <v>0.08503824661368781</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2340,31 +2265,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.49310264319724068</v>
+        <v>0.4931026431972407</v>
       </c>
       <c r="C3">
-        <v>0.89938992239505255</v>
+        <v>0.8993899223950526</v>
       </c>
       <c r="D3">
-        <v>0.85502185497581396</v>
+        <v>0.855021854975814</v>
       </c>
       <c r="E3">
-        <v>0.58713637461767587</v>
+        <v>0.5871363746176759</v>
       </c>
       <c r="F3">
-        <v>0.83984345804533822</v>
+        <v>0.8398434580453382</v>
       </c>
       <c r="G3">
-        <v>0.58713637461767587</v>
+        <v>0.5871363746176759</v>
       </c>
       <c r="H3">
-        <v>9.5642917862699739E-2</v>
+        <v>0.09564291786269974</v>
       </c>
       <c r="I3">
-        <v>6.451362409196218E-2</v>
+        <v>0.06451362409196218</v>
       </c>
       <c r="J3">
-        <v>0.34674081484809738</v>
+        <v>0.3467408148480974</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2372,28 +2297,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.99999999999999989</v>
+        <v>0.9418805800460772</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
+        <v>0.7806745770418354</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1.00000000001</v>
-      </c>
       <c r="F4">
+        <v>0.9418805800460772</v>
+      </c>
+      <c r="G4">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.00000000001</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.05776350914928749</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2404,22 +2329,22 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.35602836485977579</v>
+        <v>0.3560283648597758</v>
       </c>
       <c r="C5">
-        <v>0.79044368773596785</v>
+        <v>0.7904436877359678</v>
       </c>
       <c r="D5">
         <v>0.5289429159085316</v>
       </c>
       <c r="E5">
-        <v>0.51196306225731592</v>
+        <v>0.5119630622573159</v>
       </c>
       <c r="F5">
-        <v>0.69541807038796344</v>
+        <v>0.6954180703879634</v>
       </c>
       <c r="G5">
-        <v>0.51196306225731592</v>
+        <v>0.5119630622573159</v>
       </c>
       <c r="H5">
         <v>0.1989470337813575</v>
@@ -2428,7 +2353,7 @@
         <v>0.1056348958306791</v>
       </c>
       <c r="J5">
-        <v>0.33938970552818759</v>
+        <v>0.3393897055281876</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2436,31 +2361,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.54047740342049089</v>
+        <v>0.5404774034204909</v>
       </c>
       <c r="C6">
-        <v>0.99781677104078292</v>
+        <v>0.9978167710407829</v>
       </c>
       <c r="D6">
-        <v>0.82862437127029276</v>
+        <v>0.8286243712702928</v>
       </c>
       <c r="E6">
-        <v>0.60796854674948997</v>
+        <v>0.60796854674949</v>
       </c>
       <c r="F6">
-        <v>0.88898908720893288</v>
+        <v>0.8889890872089329</v>
       </c>
       <c r="G6">
-        <v>0.60796854674948997</v>
+        <v>0.60796854674949</v>
       </c>
       <c r="H6">
-        <v>1.2566351017561091E-3</v>
+        <v>0.001256635101756109</v>
       </c>
       <c r="I6">
-        <v>0.10975427768931099</v>
+        <v>0.109754277689311</v>
       </c>
       <c r="J6">
-        <v>0.34851168378844188</v>
+        <v>0.3485116837884419</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2468,31 +2393,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.35214411522326883</v>
+        <v>0.3521441152232688</v>
       </c>
       <c r="C7">
-        <v>0.93299777179704735</v>
+        <v>0.9329977717970473</v>
       </c>
       <c r="D7">
         <v>0.4603343660969017</v>
       </c>
       <c r="E7">
-        <v>0.46005157541562858</v>
+        <v>0.4600515754156286</v>
       </c>
       <c r="F7">
-        <v>0.76544486324110195</v>
+        <v>0.7654448632411019</v>
       </c>
       <c r="G7">
-        <v>0.46005157541562858</v>
+        <v>0.4600515754156286</v>
       </c>
       <c r="H7">
-        <v>6.7001342867670233E-2</v>
+        <v>0.06700134286767023</v>
       </c>
       <c r="I7">
         <v>0.1675537938912279</v>
       </c>
       <c r="J7">
-        <v>0.41330074801783301</v>
+        <v>0.413300748017833</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2503,28 +2428,28 @@
         <v>0.512815241616145</v>
       </c>
       <c r="C8">
-        <v>0.94131104991788705</v>
+        <v>0.9413110499178871</v>
       </c>
       <c r="D8">
-        <v>0.76053861385598809</v>
+        <v>0.7605386138559881</v>
       </c>
       <c r="E8">
-        <v>0.60328728895885342</v>
+        <v>0.6032872889588534</v>
       </c>
       <c r="F8">
-        <v>0.85003488554713091</v>
+        <v>0.8500348855471309</v>
       </c>
       <c r="G8">
-        <v>0.60328728895885342</v>
+        <v>0.6032872889588534</v>
       </c>
       <c r="H8">
-        <v>5.8688566607926318E-2</v>
+        <v>0.05868856660792632</v>
       </c>
       <c r="I8">
-        <v>9.1276547844942768E-2</v>
+        <v>0.09127654784494277</v>
       </c>
       <c r="J8">
-        <v>0.33721964393098591</v>
+        <v>0.3372196439309859</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2532,31 +2457,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.59139664982434015</v>
+        <v>0.5913966498243401</v>
       </c>
       <c r="C9">
-        <v>0.81704002241052764</v>
+        <v>0.8170400224105276</v>
       </c>
       <c r="D9">
-        <v>0.79472032095734302</v>
+        <v>0.794720320957343</v>
       </c>
       <c r="E9">
-        <v>0.76781819173322685</v>
+        <v>0.7678181917332269</v>
       </c>
       <c r="F9">
-        <v>0.77023005732259997</v>
+        <v>0.7702300573226</v>
       </c>
       <c r="G9">
-        <v>0.76781819173322685</v>
+        <v>0.7678181917332269</v>
       </c>
       <c r="H9">
-        <v>0.18295873737422369</v>
+        <v>0.1829587373742237</v>
       </c>
       <c r="I9">
-        <v>4.6811205303176173E-2</v>
+        <v>0.04681120530317617</v>
       </c>
       <c r="J9">
-        <v>0.17883340749825979</v>
+        <v>0.1788334074982598</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2564,31 +2489,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.45021117574332148</v>
+        <v>0.4502111757433215</v>
       </c>
       <c r="C10">
-        <v>0.82193104104221171</v>
+        <v>0.8219310410422117</v>
       </c>
       <c r="D10">
-        <v>0.67505328302771261</v>
+        <v>0.6750532830277126</v>
       </c>
       <c r="E10">
-        <v>0.61324318047569593</v>
+        <v>0.6132431804756959</v>
       </c>
       <c r="F10">
         <v>0.7341478716489318</v>
       </c>
       <c r="G10">
-        <v>0.61324318047569593</v>
+        <v>0.6132431804756959</v>
       </c>
       <c r="H10">
-        <v>0.17806711229275901</v>
+        <v>0.178067112292759</v>
       </c>
       <c r="I10">
-        <v>8.7785016058309101E-2</v>
+        <v>0.0877850160583091</v>
       </c>
       <c r="J10">
-        <v>0.28393669590561038</v>
+        <v>0.2839366959056104</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2596,31 +2521,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.84729446014295162</v>
+        <v>0.7109902132874627</v>
       </c>
       <c r="C11">
-        <v>0.94505449546204601</v>
+        <v>0.945054495462046</v>
       </c>
       <c r="D11">
-        <v>0.56192569965895678</v>
+        <v>0.5619256996589568</v>
       </c>
       <c r="E11">
-        <v>1.0000000000118019</v>
+        <v>0.8391300152911411</v>
       </c>
       <c r="F11">
-        <v>0.84729446014295151</v>
+        <v>0.8472944601429515</v>
       </c>
       <c r="G11">
-        <v>1.0000000000118019</v>
+        <v>0.8391300152911411</v>
       </c>
       <c r="H11">
-        <v>5.494459591898071E-2</v>
+        <v>0.05494459591898071</v>
       </c>
       <c r="I11">
-        <v>9.7760943938067751E-2</v>
+        <v>0.09776094393806775</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1363042468554889</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2628,31 +2553,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.50845250465298841</v>
+        <v>0.5084525046529884</v>
       </c>
       <c r="C12">
-        <v>0.94601025266334648</v>
+        <v>0.9460102526633465</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.52487228233877659</v>
+        <v>0.5248722823387766</v>
       </c>
       <c r="F12">
-        <v>0.96871662262793801</v>
+        <v>0.968716622627938</v>
       </c>
       <c r="G12">
-        <v>0.52487228233877659</v>
+        <v>0.5248722823387766</v>
       </c>
       <c r="H12">
-        <v>3.1283377372062049E-2</v>
+        <v>0.03128337737206205</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.46026411797494959</v>
+        <v>0.4602641179749496</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2660,31 +2585,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.7084578220009122</v>
       </c>
       <c r="C13">
-        <v>0.99999999999999956</v>
+        <v>0.9750016437959284</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.7844512332267392</v>
       </c>
       <c r="E13">
-        <v>1.00000000001</v>
+        <v>0.8005608241692612</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.8849518994938101</v>
       </c>
       <c r="G13">
-        <v>1.00000000001</v>
+        <v>0.8005608241692612</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.01794592313439047</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.09710217737179927</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.176494077492898</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2692,31 +2617,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.70657890179453064</v>
+        <v>0.6409452749152547</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.76948130237352597</v>
+        <v>0.769481302373526</v>
       </c>
       <c r="E14">
-        <v>0.74802913054822084</v>
+        <v>0.6785452205071197</v>
       </c>
       <c r="F14">
-        <v>0.94458741370696153</v>
+        <v>0.9445874137069615</v>
       </c>
       <c r="G14">
-        <v>0.74802913054822084</v>
+        <v>0.6785452205071197</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.5412586293038607E-2</v>
+        <v>0.05541258629303861</v>
       </c>
       <c r="J14">
-        <v>0.2380085119124308</v>
+        <v>0.3036421387917068</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2727,28 +2652,28 @@
         <v>0.5080305807812574</v>
       </c>
       <c r="C15">
-        <v>0.81516571716813513</v>
+        <v>0.8151657171681351</v>
       </c>
       <c r="D15">
-        <v>1.21940411687968E-2</v>
+        <v>0.0121940411687968</v>
       </c>
       <c r="E15">
-        <v>0.89541577822173057</v>
+        <v>0.8954157782217306</v>
       </c>
       <c r="F15">
-        <v>0.56736835908693217</v>
+        <v>0.5673683590869322</v>
       </c>
       <c r="G15">
-        <v>0.89541577822173057</v>
+        <v>0.8954157782217306</v>
       </c>
       <c r="H15">
-        <v>0.18483374018798401</v>
+        <v>0.184833740187984</v>
       </c>
       <c r="I15">
         <v>0.2477979007250839</v>
       </c>
       <c r="J15">
-        <v>5.933777830567466E-2</v>
+        <v>0.05933777830567466</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2756,31 +2681,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.62403041028396455</v>
+        <v>0.584630448020552</v>
       </c>
       <c r="C16">
-        <v>0.91872088563670273</v>
+        <v>0.9169352887649832</v>
       </c>
       <c r="D16">
-        <v>0.71216051708052053</v>
+        <v>0.6810980749568474</v>
       </c>
       <c r="E16">
-        <v>0.73712752938285087</v>
+        <v>0.7064280243391007</v>
       </c>
       <c r="F16">
-        <v>0.8387120608347125</v>
+        <v>0.8263429522304188</v>
       </c>
       <c r="G16">
-        <v>0.73712752938285087</v>
+        <v>0.7064280243391007</v>
       </c>
       <c r="H16">
-        <v>7.8478007859609927E-2</v>
+        <v>0.07975985951206639</v>
       </c>
       <c r="I16">
-        <v>8.2809931305677598E-2</v>
+        <v>0.09387176605718381</v>
       </c>
       <c r="J16">
-        <v>0.21468165055074789</v>
+        <v>0.2417125042098667</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2788,51 +2713,45 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.2065829400471477</v>
+        <v>0.1622861983179036</v>
       </c>
       <c r="C17">
-        <v>7.1553358724208191E-2</v>
+        <v>0.0699117727288652</v>
       </c>
       <c r="D17">
-        <v>0.2457617144838791</v>
+        <v>0.2216139343452682</v>
       </c>
       <c r="E17">
-        <v>0.19104729209007629</v>
+        <v>0.1660981723913005</v>
       </c>
       <c r="F17">
-        <v>0.1151791943383777</v>
+        <v>0.1025039972080352</v>
       </c>
       <c r="G17">
-        <v>0.19104729209007629</v>
+        <v>0.1660981723913005</v>
       </c>
       <c r="H17">
-        <v>7.1093095752269866E-2</v>
+        <v>0.06990267305664577</v>
       </c>
       <c r="I17">
-        <v>6.267811641085351E-2</v>
+        <v>0.05436403077646181</v>
       </c>
       <c r="J17">
-        <v>0.15932945258780321</v>
+        <v>0.1398459843833255</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -2868,28 +2787,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.87035094117195233</v>
+        <v>0.8703509411719522</v>
       </c>
       <c r="C2">
-        <v>0.95760738620362384</v>
+        <v>0.9576073862036237</v>
       </c>
       <c r="D2">
-        <v>0.72341053899577357</v>
+        <v>0.7234105389957735</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.87035094117195244</v>
+        <v>0.8703509411719523</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>4.2392348489833531E-2</v>
+        <v>0.04239234848983364</v>
       </c>
       <c r="I2">
-        <v>8.7256710338214111E-2</v>
+        <v>0.08725671033821411</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2900,31 +2819,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.50803271475201184</v>
+        <v>0.5036669563071025</v>
       </c>
       <c r="C3">
-        <v>0.634829125679504</v>
+        <v>0.6300420032176792</v>
       </c>
       <c r="D3">
-        <v>0.97831715874087943</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.78731886680693852</v>
+        <v>0.7993956274942876</v>
       </c>
       <c r="F3">
-        <v>0.64526932627995626</v>
+        <v>0.6300376687237967</v>
       </c>
       <c r="G3">
-        <v>0.78731886680693852</v>
+        <v>0.7993956274942876</v>
       </c>
       <c r="H3">
-        <v>0.3540708267183017</v>
+        <v>0.3699536622287978</v>
       </c>
       <c r="I3">
-        <v>6.5984700174205602E-4</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1372366115279445</v>
+        <v>0.1263793814640998</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2932,28 +2851,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9686333576808024</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.968649994290947</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.6222310049255223</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9686333576808023</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.03134875706309215</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.788525610556065E-05</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2964,31 +2883,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.36720168536927761</v>
+        <v>0.3646737345523161</v>
       </c>
       <c r="C5">
-        <v>0.79860896794814673</v>
+        <v>0.7933189774845372</v>
       </c>
       <c r="D5">
-        <v>-0.12228472447165251</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.47697737959389491</v>
+        <v>0.459672993133094</v>
       </c>
       <c r="F5">
-        <v>0.76985136209586746</v>
+        <v>0.7933119175909183</v>
       </c>
       <c r="G5">
-        <v>0.47697737959389491</v>
+        <v>0.459672993133094</v>
       </c>
       <c r="H5">
-        <v>0.19510674841779749</v>
+        <v>0.2066739624961871</v>
       </c>
       <c r="I5">
-        <v>3.5041889486335097E-2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4026496767265898</v>
+        <v>0.4286523029514968</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2996,22 +2915,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.54116542283628744</v>
+        <v>0.5411654228362874</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.82119301851186666</v>
+        <v>0.8211930185118667</v>
       </c>
       <c r="E6">
-        <v>0.61013994875408417</v>
+        <v>0.6101399487540842</v>
       </c>
       <c r="F6">
-        <v>0.88695294242141687</v>
+        <v>0.8869529424214169</v>
       </c>
       <c r="G6">
-        <v>0.61013994875408417</v>
+        <v>0.6101399487540842</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3020,7 +2939,7 @@
         <v>0.1130470575785834</v>
       </c>
       <c r="J6">
-        <v>0.34578751958512932</v>
+        <v>0.3457875195851293</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3028,31 +2947,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.36361898891566641</v>
+        <v>0.3622569994768123</v>
       </c>
       <c r="C7">
-        <v>0.817905929833041</v>
+        <v>0.8195206480955008</v>
       </c>
       <c r="D7">
-        <v>1.0007942821983591</v>
+        <v>0.4033875879972494</v>
       </c>
       <c r="E7">
-        <v>0.45014037304146198</v>
+        <v>0.442039100934937</v>
       </c>
       <c r="F7">
-        <v>0.80779021543613871</v>
+        <v>0.8195134745107815</v>
       </c>
       <c r="G7">
-        <v>0.45014037304146198</v>
+        <v>0.442039100934937</v>
       </c>
       <c r="H7">
-        <v>0.182091664063321</v>
+        <v>0.1804769671369731</v>
       </c>
       <c r="I7">
-        <v>8.0253797947439097E-6</v>
+        <v>9.558352245450292E-06</v>
       </c>
       <c r="J7">
-        <v>0.44417122652047231</v>
+        <v>0.4572564750339691</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3060,31 +2979,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.52952559257160492</v>
+        <v>0.5275426014478848</v>
       </c>
       <c r="C8">
-        <v>0.72122218306311192</v>
+        <v>0.73739992564434</v>
       </c>
       <c r="D8">
-        <v>1.0002358496856529</v>
+        <v>0.776173003863005</v>
       </c>
       <c r="E8">
-        <v>0.75928057270582383</v>
+        <v>0.7154134983599314</v>
       </c>
       <c r="F8">
-        <v>0.69740437409658929</v>
+        <v>0.7373953701702075</v>
       </c>
       <c r="G8">
-        <v>0.75928057270582383</v>
+        <v>0.7154134983599314</v>
       </c>
       <c r="H8">
-        <v>0.27877599539984438</v>
+        <v>0.2625983585241481</v>
       </c>
       <c r="I8">
-        <v>5.6158548316403934E-6</v>
+        <v>6.271305644344242E-06</v>
       </c>
       <c r="J8">
-        <v>0.16787878152498431</v>
+        <v>0.2098527687223227</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3092,31 +3011,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.59542125405592039</v>
+        <v>0.5954212540559204</v>
       </c>
       <c r="C9">
-        <v>0.77538507077612173</v>
+        <v>0.7753850707761217</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.76789188326817936</v>
+        <v>0.7678918832681794</v>
       </c>
       <c r="F9">
-        <v>0.77537981481050655</v>
+        <v>0.7753798148105066</v>
       </c>
       <c r="G9">
-        <v>0.76789188326817936</v>
+        <v>0.7678918832681794</v>
       </c>
       <c r="H9">
-        <v>0.22460967318700681</v>
+        <v>0.2246096731870068</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.17996907275707291</v>
+        <v>0.1799690727570729</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3124,31 +3043,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.46103354393509588</v>
+        <v>0.4610335439350959</v>
       </c>
       <c r="C10">
-        <v>0.72639196298018716</v>
+        <v>0.7263919629801872</v>
       </c>
       <c r="D10">
-        <v>0.56595939460240352</v>
+        <v>0.5659593946024035</v>
       </c>
       <c r="E10">
-        <v>0.63469249321919097</v>
+        <v>0.634692493219191</v>
       </c>
       <c r="F10">
-        <v>0.72638884004553383</v>
+        <v>0.7263888400455338</v>
       </c>
       <c r="G10">
-        <v>0.63469249321919097</v>
+        <v>0.634692493219191</v>
       </c>
       <c r="H10">
-        <v>0.27360519956629692</v>
+        <v>0.2736051995662969</v>
       </c>
       <c r="I10">
-        <v>5.9603881691851583E-6</v>
+        <v>5.960388169185158E-06</v>
       </c>
       <c r="J10">
-        <v>0.26535529611043801</v>
+        <v>0.265355296110438</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3156,31 +3075,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.89912679324397604</v>
+        <v>0.7115912733104243</v>
       </c>
       <c r="C11">
-        <v>0.97291053432691132</v>
+        <v>0.9438857936185312</v>
       </c>
       <c r="D11">
-        <v>0.25221107580637903</v>
+        <v>0.5659186688001699</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.8422208951626734</v>
       </c>
       <c r="F11">
-        <v>0.8991267932439756</v>
+        <v>0.8448986214869221</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.8422208951626734</v>
       </c>
       <c r="H11">
-        <v>2.4317344361859061E-2</v>
+        <v>0.05639176097966292</v>
       </c>
       <c r="I11">
-        <v>7.6555862394165314E-2</v>
+        <v>0.09870961753341492</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1333073481764978</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3188,25 +3107,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.50860532455154805</v>
+        <v>0.5086053245515481</v>
       </c>
       <c r="C12">
-        <v>0.93497774371465048</v>
+        <v>0.9349777437146505</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.52842272088948461</v>
+        <v>0.5284227208894846</v>
       </c>
       <c r="F12">
-        <v>0.96249707752047786</v>
+        <v>0.9624970775204779</v>
       </c>
       <c r="G12">
-        <v>0.52842272088948461</v>
+        <v>0.5284227208894846</v>
       </c>
       <c r="H12">
-        <v>3.7502922479522111E-2</v>
+        <v>0.03750292247952211</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3220,31 +3139,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.99999999999999978</v>
+        <v>0.70884794675046</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.9621139254907807</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.7631129387293846</v>
       </c>
       <c r="E13">
-        <v>0.99999999999999978</v>
+        <v>0.7859637510500663</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.9018837647454125</v>
       </c>
       <c r="G13">
-        <v>0.99999999999999978</v>
+        <v>0.7859637510500663</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.03029882214447666</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.06781741311011083</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1930358179949525</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3252,31 +3171,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.72256083391415049</v>
+        <v>0.6412820170334864</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.76947129787253254</v>
+        <v>0.7694817255995211</v>
       </c>
       <c r="E14">
-        <v>0.74847200619068199</v>
+        <v>0.6799417230627484</v>
       </c>
       <c r="F14">
-        <v>0.96538124063128916</v>
+        <v>0.9431426183774662</v>
       </c>
       <c r="G14">
-        <v>0.74847200619068199</v>
+        <v>0.6799417230627484</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.4618759368711019E-2</v>
+        <v>0.05685738162253418</v>
       </c>
       <c r="J14">
-        <v>0.24282040671713859</v>
+        <v>0.3018606013439796</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3284,31 +3203,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.52458500498091254</v>
+        <v>0.5226210305575285</v>
       </c>
       <c r="C15">
-        <v>0.69908331318107286</v>
+        <v>0.7428803125403948</v>
       </c>
       <c r="D15">
-        <v>1.000196018297574</v>
+        <v>1.055459098395127E-06</v>
       </c>
       <c r="E15">
-        <v>0.8100803169229801</v>
+        <v>0.7035146256482991</v>
       </c>
       <c r="F15">
-        <v>0.64757159755899674</v>
+        <v>0.742871592862658</v>
       </c>
       <c r="G15">
-        <v>0.8100803169229801</v>
+        <v>0.7035146256482991</v>
       </c>
       <c r="H15">
-        <v>0.30091580337568152</v>
+        <v>0.2571189325973422</v>
       </c>
       <c r="I15">
-        <v>1.00950772328979E-5</v>
+        <v>9.474539999999998E-06</v>
       </c>
       <c r="J15">
-        <v>0.122986592578084</v>
+        <v>0.2202505623051293</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3316,31 +3235,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.6350877214498859</v>
+        <v>0.5919780288334016</v>
       </c>
       <c r="C16">
-        <v>0.85992301555045525</v>
+        <v>0.8565838388612353</v>
       </c>
       <c r="D16">
-        <v>0.71353599358855491</v>
+        <v>0.5007763526774281</v>
       </c>
       <c r="E16">
-        <v>0.75524404009947987</v>
+        <v>0.7120935186412126</v>
       </c>
       <c r="F16">
-        <v>0.8324260375223359</v>
+        <v>0.8288041430084895</v>
       </c>
       <c r="G16">
-        <v>0.75524404009947987</v>
+        <v>0.7120935186412126</v>
       </c>
       <c r="H16">
-        <v>0.13667060900424749</v>
+        <v>0.1409265262066671</v>
       </c>
       <c r="I16">
-        <v>2.480070163341281E-2</v>
+        <v>0.03026695214464442</v>
       </c>
       <c r="J16">
-        <v>0.19733906692977021</v>
+        <v>0.2368284928152869</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3348,35 +3267,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.20666910282079151</v>
+        <v>0.162818693344591</v>
       </c>
       <c r="C17">
-        <v>0.12455374161644001</v>
+        <v>0.1143615883390928</v>
       </c>
       <c r="D17">
-        <v>0.36699934306048693</v>
+        <v>0.3320801476411845</v>
       </c>
       <c r="E17">
-        <v>0.1828362143188611</v>
+        <v>0.1605801199866912</v>
       </c>
       <c r="F17">
-        <v>0.1172087654315745</v>
+        <v>0.09350348498391889</v>
       </c>
       <c r="G17">
-        <v>0.1828362143188611</v>
+        <v>0.1605801199866912</v>
       </c>
       <c r="H17">
-        <v>0.12448742723860511</v>
+        <v>0.1162667914234089</v>
       </c>
       <c r="I17">
-        <v>3.6578638322069257E-2</v>
+        <v>0.04094197989988082</v>
       </c>
       <c r="J17">
-        <v>0.1557156800201204</v>
+        <v>0.139202673499419</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/nonlife_2019_result.xlsx
+++ b/result/nonlife_2019_result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/result/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D23FF4C-9789-0143-BBEA-097469E9387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="VRS" sheetId="4" r:id="rId4"/>
     <sheet name="VRS_Z1split" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -128,12 +134,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -141,8 +147,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,15 +201,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -238,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,9 +291,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,12 +536,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -1016,31 +1073,31 @@
         <v>1737419</v>
       </c>
       <c r="C16">
-        <v>2371124.571428571</v>
+        <v>2371124.5714285709</v>
       </c>
       <c r="D16">
-        <v>1185562.285714286</v>
+        <v>1185562.2857142859</v>
       </c>
       <c r="E16">
-        <v>1185562.285714286</v>
+        <v>1185562.2857142859</v>
       </c>
       <c r="F16">
-        <v>12298852.42857143</v>
+        <v>12298852.428571429</v>
       </c>
       <c r="G16">
-        <v>3553848.357142857</v>
+        <v>3553848.3571428568</v>
       </c>
       <c r="H16">
-        <v>8745004.071428571</v>
+        <v>8745004.0714285709</v>
       </c>
       <c r="I16">
-        <v>1235975.285714286</v>
+        <v>1235975.2857142859</v>
       </c>
       <c r="J16">
-        <v>603621.3571428572</v>
+        <v>603621.35714285716</v>
       </c>
       <c r="K16">
-        <v>626914.7142857143</v>
+        <v>626914.71428571432</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1051,45 +1108,51 @@
         <v>1199097.295664256</v>
       </c>
       <c r="C17">
-        <v>1725853.57829702</v>
+        <v>1725853.5782970199</v>
       </c>
       <c r="D17">
-        <v>862926.7891485101</v>
+        <v>862926.78914851008</v>
       </c>
       <c r="E17">
-        <v>862926.7891485101</v>
+        <v>862926.78914851008</v>
       </c>
       <c r="F17">
         <v>9392045.831334604</v>
       </c>
       <c r="G17">
-        <v>2306258.342345066</v>
+        <v>2306258.3423450659</v>
       </c>
       <c r="H17">
-        <v>7164332.068166033</v>
+        <v>7164332.0681660334</v>
       </c>
       <c r="I17">
-        <v>783281.3460123106</v>
+        <v>783281.34601231059</v>
       </c>
       <c r="J17">
         <v>604084.1180162034</v>
       </c>
       <c r="K17">
-        <v>723132.4272701765</v>
+        <v>723132.42727017647</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="10" width="7" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -1125,28 +1188,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8698937027191925</v>
+        <v>0.86989370271919253</v>
       </c>
       <c r="C2">
-        <v>0.9549316672808323</v>
+        <v>0.95493166728083234</v>
       </c>
       <c r="D2">
-        <v>0.7234104698334241</v>
+        <v>0.72341046983342405</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.8698937027191926</v>
+        <v>0.86989370271919264</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.04506805066711961</v>
+        <v>4.5068050667119608E-2</v>
       </c>
       <c r="I2">
-        <v>0.08503824661368781</v>
+        <v>8.5038246613687807E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1157,19 +1220,19 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.48165819210789</v>
+        <v>0.48165819210789002</v>
       </c>
       <c r="C3">
         <v>0.8907835627793631</v>
       </c>
       <c r="D3">
-        <v>0.8453841942715928</v>
+        <v>0.84538419427159284</v>
       </c>
       <c r="E3">
         <v>0.5823782919932915</v>
       </c>
       <c r="F3">
-        <v>0.8270538217682026</v>
+        <v>0.82705382176820263</v>
       </c>
       <c r="G3">
         <v>0.5823782919932915</v>
@@ -1178,10 +1241,10 @@
         <v>0.1092156858350304</v>
       </c>
       <c r="I3">
-        <v>0.06373049239676692</v>
+        <v>6.3730492396766925E-2</v>
       </c>
       <c r="J3">
-        <v>0.3453956296603127</v>
+        <v>0.34539562966031268</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1189,28 +1252,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9263061928602249</v>
+        <v>0.92630619286022486</v>
       </c>
       <c r="C4">
         <v>0.9992048628102681</v>
       </c>
       <c r="D4">
-        <v>0.7232621039872358</v>
+        <v>0.72326210398723578</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9263061928602249</v>
+        <v>0.92630619286022486</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.0007951055200458024</v>
+        <v>7.9510552004580237E-4</v>
       </c>
       <c r="I4">
-        <v>0.07289870161972939</v>
+        <v>7.2898701619729389E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1221,31 +1284,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3487383722565344</v>
+        <v>0.34873837225653442</v>
       </c>
       <c r="C5">
         <v>0.7840324585375722</v>
       </c>
       <c r="D5">
-        <v>0.7916383246496547</v>
+        <v>0.79163832464965467</v>
       </c>
       <c r="E5">
-        <v>0.4673296900349047</v>
+        <v>0.46732969003490471</v>
       </c>
       <c r="F5">
-        <v>0.7462362860585368</v>
+        <v>0.74623628605853676</v>
       </c>
       <c r="G5">
-        <v>0.4673296900349047</v>
+        <v>0.46732969003490471</v>
       </c>
       <c r="H5">
-        <v>0.2159656194927675</v>
+        <v>0.21596561949276749</v>
       </c>
       <c r="I5">
-        <v>0.03779809444869589</v>
+        <v>3.779809444869589E-2</v>
       </c>
       <c r="J5">
-        <v>0.3974979138020022</v>
+        <v>0.39749791380200222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1253,31 +1316,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5404774034204909</v>
+        <v>0.54047740342049089</v>
       </c>
       <c r="C6">
-        <v>0.9978167710407829</v>
+        <v>0.99781677104078292</v>
       </c>
       <c r="D6">
-        <v>0.8286243712702928</v>
+        <v>0.82862437127029276</v>
       </c>
       <c r="E6">
-        <v>0.6079685467426511</v>
+        <v>0.60796854674265111</v>
       </c>
       <c r="F6">
-        <v>0.8889890872089329</v>
+        <v>0.88898908720893288</v>
       </c>
       <c r="G6">
-        <v>0.6079685467426511</v>
+        <v>0.60796854674265111</v>
       </c>
       <c r="H6">
-        <v>0.001256635101756109</v>
+        <v>1.2566351017561091E-3</v>
       </c>
       <c r="I6">
-        <v>0.109754277689311</v>
+        <v>0.10975427768931099</v>
       </c>
       <c r="J6">
-        <v>0.3485116837884419</v>
+        <v>0.34851168378844188</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1285,31 +1348,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3464275568194438</v>
+        <v>0.34642755681944382</v>
       </c>
       <c r="C7">
-        <v>0.9329977717970473</v>
+        <v>0.93299777179704735</v>
       </c>
       <c r="D7">
-        <v>0.5472038444021166</v>
+        <v>0.54720384440211656</v>
       </c>
       <c r="E7">
-        <v>0.4371789888631274</v>
+        <v>0.43717898886312739</v>
       </c>
       <c r="F7">
-        <v>0.7924158425827363</v>
+        <v>0.79241584258273634</v>
       </c>
       <c r="G7">
-        <v>0.4371789888631274</v>
+        <v>0.43717898886312739</v>
       </c>
       <c r="H7">
-        <v>0.06700134286767023</v>
+        <v>6.7001342867670233E-2</v>
       </c>
       <c r="I7">
-        <v>0.1405828145495936</v>
+        <v>0.14058281454959359</v>
       </c>
       <c r="J7">
-        <v>0.4459882857632924</v>
+        <v>0.44598828576329241</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1317,31 +1380,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5044912943616137</v>
+        <v>0.50449129436161366</v>
       </c>
       <c r="C8">
-        <v>0.9413110499178871</v>
+        <v>0.94131104991788705</v>
       </c>
       <c r="D8">
         <v>0.9453271673109559</v>
       </c>
       <c r="E8">
-        <v>0.5480791823598495</v>
+        <v>0.54807918235984954</v>
       </c>
       <c r="F8">
         <v>0.9204715497301672</v>
       </c>
       <c r="G8">
-        <v>0.5480791823598495</v>
+        <v>0.54807918235984954</v>
       </c>
       <c r="H8">
-        <v>0.05868856660792632</v>
+        <v>5.8688566607926318E-2</v>
       </c>
       <c r="I8">
-        <v>0.02083988366190653</v>
+        <v>2.083988366190653E-2</v>
       </c>
       <c r="J8">
-        <v>0.4159802553685533</v>
+        <v>0.41598025536855332</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1349,31 +1412,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5913966498243401</v>
+        <v>0.59139664982434015</v>
       </c>
       <c r="C9">
-        <v>0.8170400224105276</v>
+        <v>0.81704002241052764</v>
       </c>
       <c r="D9">
-        <v>0.794720320957343</v>
+        <v>0.79472032095734302</v>
       </c>
       <c r="E9">
-        <v>0.7678181917232582</v>
+        <v>0.76781819172325816</v>
       </c>
       <c r="F9">
-        <v>0.7702300573226</v>
+        <v>0.77023005732259997</v>
       </c>
       <c r="G9">
-        <v>0.7678181917232582</v>
+        <v>0.76781819172325816</v>
       </c>
       <c r="H9">
-        <v>0.1829587373742237</v>
+        <v>0.18295873737422369</v>
       </c>
       <c r="I9">
-        <v>0.04681120530317617</v>
+        <v>4.6811205303176173E-2</v>
       </c>
       <c r="J9">
-        <v>0.1788334074982598</v>
+        <v>0.17883340749825979</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1381,31 +1444,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4502111757433215</v>
+        <v>0.45021117574332148</v>
       </c>
       <c r="C10">
-        <v>0.8219310410422117</v>
+        <v>0.82193104104221171</v>
       </c>
       <c r="D10">
-        <v>0.6750532830277126</v>
+        <v>0.67505328302771261</v>
       </c>
       <c r="E10">
-        <v>0.6132431804673428</v>
+        <v>0.61324318046734283</v>
       </c>
       <c r="F10">
         <v>0.7341478716489318</v>
       </c>
       <c r="G10">
-        <v>0.6132431804673428</v>
+        <v>0.61324318046734283</v>
       </c>
       <c r="H10">
-        <v>0.178067112292759</v>
+        <v>0.17806711229275901</v>
       </c>
       <c r="I10">
-        <v>0.0877850160583091</v>
+        <v>8.7785016058309101E-2</v>
       </c>
       <c r="J10">
-        <v>0.2839366959056104</v>
+        <v>0.28393669590561038</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1413,31 +1476,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.7071693001986687</v>
+        <v>0.70716930019866875</v>
       </c>
       <c r="C11">
-        <v>0.945054495462046</v>
+        <v>0.94505449546204601</v>
       </c>
       <c r="D11">
-        <v>0.5619256996589568</v>
+        <v>0.56192569965895678</v>
       </c>
       <c r="E11">
-        <v>0.834620469581919</v>
+        <v>0.83462046958191904</v>
       </c>
       <c r="F11">
-        <v>0.8472944601429515</v>
+        <v>0.84729446014295151</v>
       </c>
       <c r="G11">
-        <v>0.834620469581919</v>
+        <v>0.83462046958191904</v>
       </c>
       <c r="H11">
-        <v>0.05494459591898071</v>
+        <v>5.494459591898071E-2</v>
       </c>
       <c r="I11">
-        <v>0.09776094393806775</v>
+        <v>9.7760943938067751E-2</v>
       </c>
       <c r="J11">
-        <v>0.140125159944283</v>
+        <v>0.14012515994428301</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1445,31 +1508,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5084525046529884</v>
+        <v>0.50845250465298841</v>
       </c>
       <c r="C12">
-        <v>0.9460102526633465</v>
+        <v>0.94601025266334648</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.5248722823333584</v>
+        <v>0.52487228233335836</v>
       </c>
       <c r="F12">
-        <v>0.968716622627938</v>
+        <v>0.96871662262793801</v>
       </c>
       <c r="G12">
-        <v>0.5248722823333584</v>
+        <v>0.52487228233335836</v>
       </c>
       <c r="H12">
-        <v>0.03128337737206205</v>
+        <v>3.1283377372062049E-2</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4602641179749495</v>
+        <v>0.46026411797494948</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1477,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7009587314757886</v>
+        <v>0.70095873147578858</v>
       </c>
       <c r="C13">
-        <v>0.9750016437959284</v>
+        <v>0.97500164379592835</v>
       </c>
       <c r="D13">
-        <v>0.7844512332267392</v>
+        <v>0.78445123322673915</v>
       </c>
       <c r="E13">
-        <v>0.792086814974616</v>
+        <v>0.79208681497461597</v>
       </c>
       <c r="F13">
-        <v>0.8849518994938101</v>
+        <v>0.88495189949381015</v>
       </c>
       <c r="G13">
-        <v>0.792086814974616</v>
+        <v>0.79208681497461597</v>
       </c>
       <c r="H13">
-        <v>0.01794592313439047</v>
+        <v>1.794592313439047E-2</v>
       </c>
       <c r="I13">
-        <v>0.09710217737179927</v>
+        <v>9.710217737179927E-2</v>
       </c>
       <c r="J13">
         <v>0.1839931680180216</v>
@@ -1509,31 +1572,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6402902943749952</v>
+        <v>0.64029029437499518</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.769481302373526</v>
+        <v>0.76948130237352597</v>
       </c>
       <c r="E14">
-        <v>0.6778518166595346</v>
+        <v>0.67785181665953465</v>
       </c>
       <c r="F14">
-        <v>0.9445874137069615</v>
+        <v>0.94458741370696153</v>
       </c>
       <c r="G14">
-        <v>0.6778518166595346</v>
+        <v>0.67785181665953465</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05541258629303861</v>
+        <v>5.5412586293038607E-2</v>
       </c>
       <c r="J14">
-        <v>0.3042971193319662</v>
+        <v>0.30429711933196618</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1541,31 +1604,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.4997846293842729</v>
+        <v>0.49978462938427293</v>
       </c>
       <c r="C15">
-        <v>0.8151657171681351</v>
+        <v>0.81516571716813513</v>
       </c>
       <c r="D15">
-        <v>0.9886292702011968</v>
+        <v>0.98862927020119684</v>
       </c>
       <c r="E15">
-        <v>0.6152605167063452</v>
+        <v>0.61526051670634518</v>
       </c>
       <c r="F15">
-        <v>0.8123138342433452</v>
+        <v>0.81231383424334525</v>
       </c>
       <c r="G15">
-        <v>0.6152605167063452</v>
+        <v>0.61526051670634518</v>
       </c>
       <c r="H15">
-        <v>0.184833740187984</v>
+        <v>0.18483374018798401</v>
       </c>
       <c r="I15">
-        <v>0.00285242556867088</v>
+        <v>2.8524255686708799E-3</v>
       </c>
       <c r="J15">
-        <v>0.3125292048590722</v>
+        <v>0.31252920485907221</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1573,31 +1636,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5797325714428405</v>
+        <v>0.57973257144284052</v>
       </c>
       <c r="C16">
         <v>0.915805808336139</v>
       </c>
       <c r="D16">
-        <v>0.7842222560836248</v>
+        <v>0.78422225608362484</v>
       </c>
       <c r="E16">
-        <v>0.6763348551742999</v>
+        <v>0.67633485517429992</v>
       </c>
       <c r="F16">
-        <v>0.8524006172938952</v>
+        <v>0.85240061729389516</v>
       </c>
       <c r="G16">
-        <v>0.6763348551742999</v>
+        <v>0.67633485517429992</v>
       </c>
       <c r="H16">
-        <v>0.08200174945519399</v>
+        <v>8.2001749455193992E-2</v>
       </c>
       <c r="I16">
-        <v>0.06559763325091092</v>
+        <v>6.5597633250910919E-2</v>
       </c>
       <c r="J16">
-        <v>0.2726680458510546</v>
+        <v>0.27266804585105459</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1608,42 +1671,48 @@
         <v>0.1616384056045565</v>
       </c>
       <c r="C17">
-        <v>0.07080707400178775</v>
+        <v>7.0807074001787748E-2</v>
       </c>
       <c r="D17">
         <v>0.1278847151034711</v>
       </c>
       <c r="E17">
-        <v>0.1668980015999862</v>
+        <v>0.16689800159998619</v>
       </c>
       <c r="F17">
-        <v>0.06962185905569569</v>
+        <v>6.9621859055695692E-2</v>
       </c>
       <c r="G17">
-        <v>0.1668980015999862</v>
+        <v>0.16689800159998619</v>
       </c>
       <c r="H17">
-        <v>0.07213921190161056</v>
+        <v>7.2139211901610559E-2</v>
       </c>
       <c r="I17">
-        <v>0.03829652453578817</v>
+        <v>3.8296524535788169E-2</v>
       </c>
       <c r="J17">
         <v>0.140959200992471</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="210" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="10" width="7" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -1679,28 +1748,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8703509411719522</v>
+        <v>0.87035094117195222</v>
       </c>
       <c r="C2">
-        <v>0.9576073862036237</v>
+        <v>0.95760738620362373</v>
       </c>
       <c r="D2">
-        <v>0.7234105389957735</v>
+        <v>0.72341053899577346</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.8703509411719523</v>
+        <v>0.87035094117195233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.04239234848983364</v>
+        <v>4.2392348489833642E-2</v>
       </c>
       <c r="I2">
-        <v>0.08725671033821411</v>
+        <v>8.7256710338214111E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1711,28 +1780,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5036652387860502</v>
+        <v>0.50366523878605018</v>
       </c>
       <c r="C3">
-        <v>0.6300681183696383</v>
+        <v>0.63006811836963827</v>
       </c>
       <c r="D3">
-        <v>0.831392629367731</v>
+        <v>0.83139262936773095</v>
       </c>
       <c r="E3">
-        <v>0.7993901644053695</v>
+        <v>0.79939016440536947</v>
       </c>
       <c r="F3">
-        <v>0.6300618411545059</v>
+        <v>0.63006184115450592</v>
       </c>
       <c r="G3">
-        <v>0.7993901644053695</v>
+        <v>0.79939016440536947</v>
       </c>
       <c r="H3">
-        <v>0.3699326034202322</v>
+        <v>0.36993260342023221</v>
       </c>
       <c r="I3">
-        <v>5.555425261913679E-06</v>
+        <v>5.5554252619136786E-6</v>
       </c>
       <c r="J3">
         <v>0.1263966023684556</v>
@@ -1743,10 +1812,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9686297625874041</v>
+        <v>0.96862976258740408</v>
       </c>
       <c r="C4">
-        <v>0.9686465999453008</v>
+        <v>0.96864659994530078</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1755,16 +1824,16 @@
         <v>0.9999627446967595</v>
       </c>
       <c r="F4">
-        <v>0.9686297625774042</v>
+        <v>0.96862976257740419</v>
       </c>
       <c r="G4">
         <v>0.9999627446967595</v>
       </c>
       <c r="H4">
-        <v>0.03135215127354418</v>
+        <v>3.1352151273544182E-2</v>
       </c>
       <c r="I4">
-        <v>1.808613905157683E-05</v>
+        <v>1.8086139051576828E-5</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1775,31 +1844,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3646722210362349</v>
+        <v>0.36467222103623492</v>
       </c>
       <c r="C5">
-        <v>0.7933246334674715</v>
+        <v>0.79332463346747151</v>
       </c>
       <c r="D5">
-        <v>0.8454788920058284</v>
+        <v>0.84547889200582838</v>
       </c>
       <c r="E5">
-        <v>0.4596777138731444</v>
+        <v>0.45967771387314438</v>
       </c>
       <c r="F5">
-        <v>0.7933215164241618</v>
+        <v>0.79332151642416182</v>
       </c>
       <c r="G5">
-        <v>0.4596777138731444</v>
+        <v>0.45967771387314438</v>
       </c>
       <c r="H5">
-        <v>0.2066758881605519</v>
+        <v>0.20667588816055191</v>
       </c>
       <c r="I5">
-        <v>2.595415286337192E-06</v>
+        <v>2.5954152863371919E-6</v>
       </c>
       <c r="J5">
-        <v>0.4286492953879268</v>
+        <v>0.42864929538792679</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1807,22 +1876,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5411654228362874</v>
+        <v>0.54116542283628744</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8211930185118667</v>
+        <v>0.82119301851186666</v>
       </c>
       <c r="E6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="F6">
-        <v>0.8869529424214169</v>
+        <v>0.88695294242141687</v>
       </c>
       <c r="G6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1831,7 +1900,7 @@
         <v>0.1130470575785834</v>
       </c>
       <c r="J6">
-        <v>0.3457875195851293</v>
+        <v>0.34578751958512932</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1842,28 +1911,28 @@
         <v>0.3622565733570946</v>
       </c>
       <c r="C7">
-        <v>0.819516652959023</v>
+        <v>0.81951665295902298</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4420328246333906</v>
+        <v>0.44203282463339061</v>
       </c>
       <c r="F7">
-        <v>0.8195139469952696</v>
+        <v>0.81951394699526958</v>
       </c>
       <c r="G7">
-        <v>0.4420328246333906</v>
+        <v>0.44203282463339061</v>
       </c>
       <c r="H7">
         <v>0.1804809622206611</v>
       </c>
       <c r="I7">
-        <v>5.090781242914796E-06</v>
+        <v>5.0907812429147964E-6</v>
       </c>
       <c r="J7">
-        <v>0.4572573736410013</v>
+        <v>0.45725737364100127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1871,31 +1940,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5275414831759986</v>
+        <v>0.52754148317599858</v>
       </c>
       <c r="C8">
-        <v>0.73739992564434</v>
+        <v>0.73739992564433998</v>
       </c>
       <c r="D8">
-        <v>0.9076957451668602</v>
+        <v>0.90769574516686025</v>
       </c>
       <c r="E8">
-        <v>0.7154084066468467</v>
+        <v>0.71540840664684668</v>
       </c>
       <c r="F8">
-        <v>0.7373990552453956</v>
+        <v>0.73739905524539562</v>
       </c>
       <c r="G8">
-        <v>0.7154084066468467</v>
+        <v>0.71540840664684668</v>
       </c>
       <c r="H8">
-        <v>0.2625983585241481</v>
+        <v>0.26259835852414809</v>
       </c>
       <c r="I8">
-        <v>2.586230456212519E-06</v>
+        <v>2.5862304562125191E-6</v>
       </c>
       <c r="J8">
-        <v>0.209857572069397</v>
+        <v>0.20985757206939701</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1903,31 +1972,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5954212540559204</v>
+        <v>0.59542125405592039</v>
       </c>
       <c r="C9">
-        <v>0.7753903268129932</v>
+        <v>0.77539032681299325</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7678918832681794</v>
+        <v>0.76789188326817936</v>
       </c>
       <c r="F9">
-        <v>0.7753798148105066</v>
+        <v>0.77537981481050655</v>
       </c>
       <c r="G9">
-        <v>0.7678918832681794</v>
+        <v>0.76789188326817936</v>
       </c>
       <c r="H9">
-        <v>0.2246096731870068</v>
+        <v>0.22460967318700681</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1799690727570729</v>
+        <v>0.17996907275707291</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1935,10 +2004,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4610346620206425</v>
+        <v>0.46103466202064253</v>
       </c>
       <c r="C10">
-        <v>0.7263895442716617</v>
+        <v>0.72638954427166169</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1947,19 +2016,19 @@
         <v>0.6346847939942486</v>
       </c>
       <c r="F10">
-        <v>0.7263744785313387</v>
+        <v>0.72637447853133874</v>
       </c>
       <c r="G10">
         <v>0.6346847939942486</v>
       </c>
       <c r="H10">
-        <v>0.2736104557283383</v>
+        <v>0.27361045572833831</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2653548822510193</v>
+        <v>0.26535488225101928</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1967,31 +2036,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.7077671330109161</v>
+        <v>0.70776713301091609</v>
       </c>
       <c r="C11">
         <v>0.9438857936185312</v>
       </c>
       <c r="D11">
-        <v>0.5659186688001699</v>
+        <v>0.56591866880016994</v>
       </c>
       <c r="E11">
-        <v>0.8376947423175213</v>
+        <v>0.83769474231752128</v>
       </c>
       <c r="F11">
-        <v>0.8448986214869221</v>
+        <v>0.84489862148692207</v>
       </c>
       <c r="G11">
-        <v>0.8376947423175213</v>
+        <v>0.83769474231752128</v>
       </c>
       <c r="H11">
-        <v>0.05639176097966292</v>
+        <v>5.6391760979662919E-2</v>
       </c>
       <c r="I11">
-        <v>0.09870961753341492</v>
+        <v>9.8709617533414923E-2</v>
       </c>
       <c r="J11">
-        <v>0.1371314884760061</v>
+        <v>0.13713148847600609</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1999,25 +2068,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5086053245515481</v>
+        <v>0.50860532455154805</v>
       </c>
       <c r="C12">
-        <v>0.9349777437146505</v>
+        <v>0.93497774371465048</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="F12">
-        <v>0.9624970775204779</v>
+        <v>0.96249707752047786</v>
       </c>
       <c r="G12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="H12">
-        <v>0.03750292247952211</v>
+        <v>3.7502922479522111E-2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2031,28 +2100,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7013447286482605</v>
+        <v>0.70134472864826047</v>
       </c>
       <c r="C13">
-        <v>0.9621139254907807</v>
+        <v>0.96211392549078067</v>
       </c>
       <c r="D13">
-        <v>0.7631129387293846</v>
+        <v>0.76311293872938457</v>
       </c>
       <c r="E13">
-        <v>0.7776442553506204</v>
+        <v>0.77764425535062043</v>
       </c>
       <c r="F13">
-        <v>0.9018837647454125</v>
+        <v>0.90188376474541254</v>
       </c>
       <c r="G13">
-        <v>0.7776442553506204</v>
+        <v>0.77764425535062043</v>
       </c>
       <c r="H13">
-        <v>0.03029882214447666</v>
+        <v>3.0298822144476659E-2</v>
       </c>
       <c r="I13">
-        <v>0.06781741311011083</v>
+        <v>6.781741311011083E-2</v>
       </c>
       <c r="J13">
         <v>0.2005390360971521</v>
@@ -2063,7 +2132,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6406266930899321</v>
+        <v>0.64062669308993214</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2072,19 +2141,19 @@
         <v>0.7694817255995211</v>
       </c>
       <c r="E14">
-        <v>0.6792468928951947</v>
+        <v>0.67924689289519469</v>
       </c>
       <c r="F14">
-        <v>0.9431426183774662</v>
+        <v>0.94314261837746616</v>
       </c>
       <c r="G14">
-        <v>0.6792468928951947</v>
+        <v>0.67924689289519469</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05685738162253418</v>
+        <v>5.6857381622534182E-2</v>
       </c>
       <c r="J14">
         <v>0.3025159252875339</v>
@@ -2098,28 +2167,28 @@
         <v>0.5226205182399345</v>
       </c>
       <c r="C15">
-        <v>0.7428803125403948</v>
+        <v>0.74288031254039477</v>
       </c>
       <c r="D15">
-        <v>0.8543694481858367</v>
+        <v>0.85436944818583671</v>
       </c>
       <c r="E15">
-        <v>0.7035062701945515</v>
+        <v>0.70350627019455148</v>
       </c>
       <c r="F15">
-        <v>0.7428796876187134</v>
+        <v>0.74287968761871337</v>
       </c>
       <c r="G15">
-        <v>0.7035062701945515</v>
+        <v>0.70350627019455148</v>
       </c>
       <c r="H15">
         <v>0.2571189325973422</v>
       </c>
       <c r="I15">
-        <v>1.379783944690879E-06</v>
+        <v>1.3797839446908789E-6</v>
       </c>
       <c r="J15">
-        <v>0.2202591693787785</v>
+        <v>0.22025916937877851</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2127,28 +2196,28 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5911215683262983</v>
+        <v>0.59112156832629825</v>
       </c>
       <c r="C16">
-        <v>0.8565857830741722</v>
+        <v>0.85658578307417221</v>
       </c>
       <c r="D16">
-        <v>0.5772895432402123</v>
+        <v>0.57728954324021231</v>
       </c>
       <c r="E16">
-        <v>0.7111216687085283</v>
+        <v>0.71112166870852833</v>
       </c>
       <c r="F16">
-        <v>0.828806147791496</v>
+        <v>0.82880614779149597</v>
       </c>
       <c r="G16">
-        <v>0.7111216687085283</v>
+        <v>0.71112166870852833</v>
       </c>
       <c r="H16">
         <v>0.14092606280038</v>
       </c>
       <c r="I16">
-        <v>0.03026596242557864</v>
+        <v>3.0265962425578639E-2</v>
       </c>
       <c r="J16">
         <v>0.237686406447743</v>
@@ -2159,45 +2228,51 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.1622703773603373</v>
+        <v>0.16227037736033731</v>
       </c>
       <c r="C17">
         <v>0.1143577304258276</v>
       </c>
       <c r="D17">
-        <v>0.3639239985735154</v>
+        <v>0.36392399857351537</v>
       </c>
       <c r="E17">
         <v>0.1601008200794965</v>
       </c>
       <c r="F17">
-        <v>0.09349976768955784</v>
+        <v>9.3499767689557839E-2</v>
       </c>
       <c r="G17">
         <v>0.1601008200794965</v>
       </c>
       <c r="H17">
-        <v>0.1162643758484087</v>
+        <v>0.11626437584840869</v>
       </c>
       <c r="I17">
-        <v>0.04094266262575651</v>
+        <v>4.0942662625756507E-2</v>
       </c>
       <c r="J17">
-        <v>0.1388891611240559</v>
+        <v>0.13888916112405589</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="228" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="10" width="7" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -2233,28 +2308,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8698937027191925</v>
+        <v>0.86989370271919253</v>
       </c>
       <c r="C2">
-        <v>0.9549316672808323</v>
+        <v>0.95493166728083234</v>
       </c>
       <c r="D2">
-        <v>0.7234104698334241</v>
+        <v>0.72341046983342405</v>
       </c>
       <c r="E2">
-        <v>1.000000000011496</v>
+        <v>1.0000000000114959</v>
       </c>
       <c r="F2">
-        <v>0.8698937027191926</v>
+        <v>0.86989370271919264</v>
       </c>
       <c r="G2">
-        <v>1.000000000011496</v>
+        <v>1.0000000000114959</v>
       </c>
       <c r="H2">
-        <v>0.04506805066711961</v>
+        <v>4.5068050667119608E-2</v>
       </c>
       <c r="I2">
-        <v>0.08503824661368781</v>
+        <v>8.5038246613687807E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2265,31 +2340,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.4931026431972407</v>
+        <v>0.49310264319724068</v>
       </c>
       <c r="C3">
-        <v>0.8993899223950526</v>
+        <v>0.89938992239505255</v>
       </c>
       <c r="D3">
-        <v>0.855021854975814</v>
+        <v>0.85502185497581396</v>
       </c>
       <c r="E3">
-        <v>0.5871363746176759</v>
+        <v>0.58713637461767587</v>
       </c>
       <c r="F3">
-        <v>0.8398434580453382</v>
+        <v>0.83984345804533822</v>
       </c>
       <c r="G3">
-        <v>0.5871363746176759</v>
+        <v>0.58713637461767587</v>
       </c>
       <c r="H3">
-        <v>0.09564291786269974</v>
+        <v>9.5642917862699739E-2</v>
       </c>
       <c r="I3">
-        <v>0.06451362409196218</v>
+        <v>6.451362409196218E-2</v>
       </c>
       <c r="J3">
-        <v>0.3467408148480974</v>
+        <v>0.34674081484809738</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2297,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9418805800460772</v>
+        <v>0.94188058004607722</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2309,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9418805800460772</v>
+        <v>0.94188058004607722</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2318,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.05776350914928749</v>
+        <v>5.776350914928749E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2329,22 +2404,22 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3560283648597758</v>
+        <v>0.35602836485977579</v>
       </c>
       <c r="C5">
-        <v>0.7904436877359678</v>
+        <v>0.79044368773596785</v>
       </c>
       <c r="D5">
         <v>0.5289429159085316</v>
       </c>
       <c r="E5">
-        <v>0.5119630622573159</v>
+        <v>0.51196306225731592</v>
       </c>
       <c r="F5">
-        <v>0.6954180703879634</v>
+        <v>0.69541807038796344</v>
       </c>
       <c r="G5">
-        <v>0.5119630622573159</v>
+        <v>0.51196306225731592</v>
       </c>
       <c r="H5">
         <v>0.1989470337813575</v>
@@ -2353,7 +2428,7 @@
         <v>0.1056348958306791</v>
       </c>
       <c r="J5">
-        <v>0.3393897055281876</v>
+        <v>0.33938970552818759</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2361,31 +2436,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5404774034204909</v>
+        <v>0.54047740342049089</v>
       </c>
       <c r="C6">
-        <v>0.9978167710407829</v>
+        <v>0.99781677104078292</v>
       </c>
       <c r="D6">
-        <v>0.8286243712702928</v>
+        <v>0.82862437127029276</v>
       </c>
       <c r="E6">
-        <v>0.60796854674949</v>
+        <v>0.60796854674948997</v>
       </c>
       <c r="F6">
-        <v>0.8889890872089329</v>
+        <v>0.88898908720893288</v>
       </c>
       <c r="G6">
-        <v>0.60796854674949</v>
+        <v>0.60796854674948997</v>
       </c>
       <c r="H6">
-        <v>0.001256635101756109</v>
+        <v>1.2566351017561091E-3</v>
       </c>
       <c r="I6">
-        <v>0.109754277689311</v>
+        <v>0.10975427768931099</v>
       </c>
       <c r="J6">
-        <v>0.3485116837884419</v>
+        <v>0.34851168378844188</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2393,31 +2468,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3521441152232688</v>
+        <v>0.35214411522326883</v>
       </c>
       <c r="C7">
-        <v>0.9329977717970473</v>
+        <v>0.93299777179704735</v>
       </c>
       <c r="D7">
         <v>0.4603343660969017</v>
       </c>
       <c r="E7">
-        <v>0.4600515754156286</v>
+        <v>0.46005157541562858</v>
       </c>
       <c r="F7">
-        <v>0.7654448632411019</v>
+        <v>0.76544486324110195</v>
       </c>
       <c r="G7">
-        <v>0.4600515754156286</v>
+        <v>0.46005157541562858</v>
       </c>
       <c r="H7">
-        <v>0.06700134286767023</v>
+        <v>6.7001342867670233E-2</v>
       </c>
       <c r="I7">
         <v>0.1675537938912279</v>
       </c>
       <c r="J7">
-        <v>0.413300748017833</v>
+        <v>0.41330074801783301</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2428,28 +2503,28 @@
         <v>0.512815241616145</v>
       </c>
       <c r="C8">
-        <v>0.9413110499178871</v>
+        <v>0.94131104991788705</v>
       </c>
       <c r="D8">
-        <v>0.7605386138559881</v>
+        <v>0.76053861385598809</v>
       </c>
       <c r="E8">
-        <v>0.6032872889588534</v>
+        <v>0.60328728895885342</v>
       </c>
       <c r="F8">
-        <v>0.8500348855471309</v>
+        <v>0.85003488554713091</v>
       </c>
       <c r="G8">
-        <v>0.6032872889588534</v>
+        <v>0.60328728895885342</v>
       </c>
       <c r="H8">
-        <v>0.05868856660792632</v>
+        <v>5.8688566607926318E-2</v>
       </c>
       <c r="I8">
-        <v>0.09127654784494277</v>
+        <v>9.1276547844942768E-2</v>
       </c>
       <c r="J8">
-        <v>0.3372196439309859</v>
+        <v>0.33721964393098591</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2457,31 +2532,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5913966498243401</v>
+        <v>0.59139664982434015</v>
       </c>
       <c r="C9">
-        <v>0.8170400224105276</v>
+        <v>0.81704002241052764</v>
       </c>
       <c r="D9">
-        <v>0.794720320957343</v>
+        <v>0.79472032095734302</v>
       </c>
       <c r="E9">
-        <v>0.7678181917332269</v>
+        <v>0.76781819173322685</v>
       </c>
       <c r="F9">
-        <v>0.7702300573226</v>
+        <v>0.77023005732259997</v>
       </c>
       <c r="G9">
-        <v>0.7678181917332269</v>
+        <v>0.76781819173322685</v>
       </c>
       <c r="H9">
-        <v>0.1829587373742237</v>
+        <v>0.18295873737422369</v>
       </c>
       <c r="I9">
-        <v>0.04681120530317617</v>
+        <v>4.6811205303176173E-2</v>
       </c>
       <c r="J9">
-        <v>0.1788334074982598</v>
+        <v>0.17883340749825979</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2489,31 +2564,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4502111757433215</v>
+        <v>0.45021117574332148</v>
       </c>
       <c r="C10">
-        <v>0.8219310410422117</v>
+        <v>0.82193104104221171</v>
       </c>
       <c r="D10">
-        <v>0.6750532830277126</v>
+        <v>0.67505328302771261</v>
       </c>
       <c r="E10">
-        <v>0.6132431804756959</v>
+        <v>0.61324318047569593</v>
       </c>
       <c r="F10">
         <v>0.7341478716489318</v>
       </c>
       <c r="G10">
-        <v>0.6132431804756959</v>
+        <v>0.61324318047569593</v>
       </c>
       <c r="H10">
-        <v>0.178067112292759</v>
+        <v>0.17806711229275901</v>
       </c>
       <c r="I10">
-        <v>0.0877850160583091</v>
+        <v>8.7785016058309101E-2</v>
       </c>
       <c r="J10">
-        <v>0.2839366959056104</v>
+        <v>0.28393669590561038</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2524,28 +2599,28 @@
         <v>0.7109902132874627</v>
       </c>
       <c r="C11">
-        <v>0.945054495462046</v>
+        <v>0.94505449546204601</v>
       </c>
       <c r="D11">
-        <v>0.5619256996589568</v>
+        <v>0.56192569965895678</v>
       </c>
       <c r="E11">
-        <v>0.8391300152911411</v>
+        <v>0.83913001529114106</v>
       </c>
       <c r="F11">
-        <v>0.8472944601429515</v>
+        <v>0.84729446014295151</v>
       </c>
       <c r="G11">
-        <v>0.8391300152911411</v>
+        <v>0.83913001529114106</v>
       </c>
       <c r="H11">
-        <v>0.05494459591898071</v>
+        <v>5.494459591898071E-2</v>
       </c>
       <c r="I11">
-        <v>0.09776094393806775</v>
+        <v>9.7760943938067751E-2</v>
       </c>
       <c r="J11">
-        <v>0.1363042468554889</v>
+        <v>0.13630424685548889</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2553,31 +2628,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5084525046529884</v>
+        <v>0.50845250465298841</v>
       </c>
       <c r="C12">
-        <v>0.9460102526633465</v>
+        <v>0.94601025266334648</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.5248722823387766</v>
+        <v>0.52487228233877659</v>
       </c>
       <c r="F12">
-        <v>0.968716622627938</v>
+        <v>0.96871662262793801</v>
       </c>
       <c r="G12">
-        <v>0.5248722823387766</v>
+        <v>0.52487228233877659</v>
       </c>
       <c r="H12">
-        <v>0.03128337737206205</v>
+        <v>3.1283377372062049E-2</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4602641179749496</v>
+        <v>0.46026411797494959</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2585,28 +2660,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7084578220009122</v>
+        <v>0.70845782200091223</v>
       </c>
       <c r="C13">
-        <v>0.9750016437959284</v>
+        <v>0.97500164379592835</v>
       </c>
       <c r="D13">
-        <v>0.7844512332267392</v>
+        <v>0.78445123322673915</v>
       </c>
       <c r="E13">
-        <v>0.8005608241692612</v>
+        <v>0.80056082416926122</v>
       </c>
       <c r="F13">
-        <v>0.8849518994938101</v>
+        <v>0.88495189949381015</v>
       </c>
       <c r="G13">
-        <v>0.8005608241692612</v>
+        <v>0.80056082416926122</v>
       </c>
       <c r="H13">
-        <v>0.01794592313439047</v>
+        <v>1.794592313439047E-2</v>
       </c>
       <c r="I13">
-        <v>0.09710217737179927</v>
+        <v>9.710217737179927E-2</v>
       </c>
       <c r="J13">
         <v>0.176494077492898</v>
@@ -2617,31 +2692,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6409452749152547</v>
+        <v>0.64094527491525466</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.769481302373526</v>
+        <v>0.76948130237352597</v>
       </c>
       <c r="E14">
-        <v>0.6785452205071197</v>
+        <v>0.67854522050711974</v>
       </c>
       <c r="F14">
-        <v>0.9445874137069615</v>
+        <v>0.94458741370696153</v>
       </c>
       <c r="G14">
-        <v>0.6785452205071197</v>
+        <v>0.67854522050711974</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05541258629303861</v>
+        <v>5.5412586293038607E-2</v>
       </c>
       <c r="J14">
-        <v>0.3036421387917068</v>
+        <v>0.30364213879170682</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2652,28 +2727,28 @@
         <v>0.5080305807812574</v>
       </c>
       <c r="C15">
-        <v>0.8151657171681351</v>
+        <v>0.81516571716813513</v>
       </c>
       <c r="D15">
-        <v>0.0121940411687968</v>
+        <v>1.21940411687968E-2</v>
       </c>
       <c r="E15">
-        <v>0.8954157782217306</v>
+        <v>0.89541577822173057</v>
       </c>
       <c r="F15">
-        <v>0.5673683590869322</v>
+        <v>0.56736835908693217</v>
       </c>
       <c r="G15">
-        <v>0.8954157782217306</v>
+        <v>0.89541577822173057</v>
       </c>
       <c r="H15">
-        <v>0.184833740187984</v>
+        <v>0.18483374018798401</v>
       </c>
       <c r="I15">
         <v>0.2477979007250839</v>
       </c>
       <c r="J15">
-        <v>0.05933777830567466</v>
+        <v>5.933777830567466E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2681,28 +2756,28 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.584630448020552</v>
+        <v>0.58463044802055197</v>
       </c>
       <c r="C16">
         <v>0.9169352887649832</v>
       </c>
       <c r="D16">
-        <v>0.6810980749568474</v>
+        <v>0.68109807495684738</v>
       </c>
       <c r="E16">
-        <v>0.7064280243391007</v>
+        <v>0.70642802433910068</v>
       </c>
       <c r="F16">
-        <v>0.8263429522304188</v>
+        <v>0.82634295223041876</v>
       </c>
       <c r="G16">
-        <v>0.7064280243391007</v>
+        <v>0.70642802433910068</v>
       </c>
       <c r="H16">
-        <v>0.07975985951206639</v>
+        <v>7.9759859512066392E-2</v>
       </c>
       <c r="I16">
-        <v>0.09387176605718381</v>
+        <v>9.3871766057183809E-2</v>
       </c>
       <c r="J16">
         <v>0.2417125042098667</v>
@@ -2713,45 +2788,51 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.1622861983179036</v>
+        <v>0.16228619831790361</v>
       </c>
       <c r="C17">
-        <v>0.0699117727288652</v>
+        <v>6.9911772728865201E-2</v>
       </c>
       <c r="D17">
-        <v>0.2216139343452682</v>
+        <v>0.22161393434526819</v>
       </c>
       <c r="E17">
-        <v>0.1660981723913005</v>
+        <v>0.16609817239130051</v>
       </c>
       <c r="F17">
         <v>0.1025039972080352</v>
       </c>
       <c r="G17">
-        <v>0.1660981723913005</v>
+        <v>0.16609817239130051</v>
       </c>
       <c r="H17">
-        <v>0.06990267305664577</v>
+        <v>6.990267305664577E-2</v>
       </c>
       <c r="I17">
-        <v>0.05436403077646181</v>
+        <v>5.4364030776461812E-2</v>
       </c>
       <c r="J17">
-        <v>0.1398459843833255</v>
+        <v>0.13984598438332549</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="223" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20:L21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="10" width="7.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -2787,28 +2868,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8703509411719522</v>
+        <v>0.87035094117195222</v>
       </c>
       <c r="C2">
-        <v>0.9576073862036237</v>
+        <v>0.95760738620362373</v>
       </c>
       <c r="D2">
-        <v>0.7234105389957735</v>
+        <v>0.72341053899577346</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.8703509411719523</v>
+        <v>0.87035094117195233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.04239234848983364</v>
+        <v>4.2392348489833642E-2</v>
       </c>
       <c r="I2">
-        <v>0.08725671033821411</v>
+        <v>8.7256710338214111E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2819,25 +2900,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5036669563071025</v>
+        <v>0.50366695630710245</v>
       </c>
       <c r="C3">
-        <v>0.6300420032176792</v>
+        <v>0.63004200321767923</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7993956274942876</v>
+        <v>0.79939562749428761</v>
       </c>
       <c r="F3">
-        <v>0.6300376687237967</v>
+        <v>0.63003766872379674</v>
       </c>
       <c r="G3">
-        <v>0.7993956274942876</v>
+        <v>0.79939562749428761</v>
       </c>
       <c r="H3">
-        <v>0.3699536622287978</v>
+        <v>0.36995366222879777</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2851,7 +2932,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9686333576808024</v>
+        <v>0.96863335768080239</v>
       </c>
       <c r="C4">
         <v>0.968649994290947</v>
@@ -2863,16 +2944,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9686333576808023</v>
+        <v>0.96863335768080228</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.03134875706309215</v>
+        <v>3.1348757063092147E-2</v>
       </c>
       <c r="I4">
-        <v>1.788525610556065E-05</v>
+        <v>1.788525610556065E-5</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2883,31 +2964,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3646737345523161</v>
+        <v>0.36467373455231611</v>
       </c>
       <c r="C5">
-        <v>0.7933189774845372</v>
+        <v>0.79331897748453717</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.459672993133094</v>
+        <v>0.45967299313309401</v>
       </c>
       <c r="F5">
-        <v>0.7933119175909183</v>
+        <v>0.79331191759091835</v>
       </c>
       <c r="G5">
-        <v>0.459672993133094</v>
+        <v>0.45967299313309401</v>
       </c>
       <c r="H5">
-        <v>0.2066739624961871</v>
+        <v>0.20667396249618711</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4286523029514968</v>
+        <v>0.42865230295149681</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2915,22 +2996,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5411654228362874</v>
+        <v>0.54116542283628744</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8211930185118667</v>
+        <v>0.82119301851186666</v>
       </c>
       <c r="E6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="F6">
-        <v>0.8869529424214169</v>
+        <v>0.88695294242141687</v>
       </c>
       <c r="G6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2939,7 +3020,7 @@
         <v>0.1130470575785834</v>
       </c>
       <c r="J6">
-        <v>0.3457875195851293</v>
+        <v>0.34578751958512932</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2947,28 +3028,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3622569994768123</v>
+        <v>0.36225699947681228</v>
       </c>
       <c r="C7">
-        <v>0.8195206480955008</v>
+        <v>0.81952064809550085</v>
       </c>
       <c r="D7">
-        <v>0.4033875879972494</v>
+        <v>0.40338758799724939</v>
       </c>
       <c r="E7">
-        <v>0.442039100934937</v>
+        <v>0.44203910093493698</v>
       </c>
       <c r="F7">
-        <v>0.8195134745107815</v>
+        <v>0.81951347451078149</v>
       </c>
       <c r="G7">
-        <v>0.442039100934937</v>
+        <v>0.44203910093493698</v>
       </c>
       <c r="H7">
-        <v>0.1804769671369731</v>
+        <v>0.18047696713697309</v>
       </c>
       <c r="I7">
-        <v>9.558352245450292E-06</v>
+        <v>9.5583522454502922E-6</v>
       </c>
       <c r="J7">
         <v>0.4572564750339691</v>
@@ -2979,28 +3060,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5275426014478848</v>
+        <v>0.52754260144788478</v>
       </c>
       <c r="C8">
-        <v>0.73739992564434</v>
+        <v>0.73739992564433998</v>
       </c>
       <c r="D8">
-        <v>0.776173003863005</v>
+        <v>0.77617300386300503</v>
       </c>
       <c r="E8">
         <v>0.7154134983599314</v>
       </c>
       <c r="F8">
-        <v>0.7373953701702075</v>
+        <v>0.73739537017020751</v>
       </c>
       <c r="G8">
         <v>0.7154134983599314</v>
       </c>
       <c r="H8">
-        <v>0.2625983585241481</v>
+        <v>0.26259835852414809</v>
       </c>
       <c r="I8">
-        <v>6.271305644344242E-06</v>
+        <v>6.271305644344242E-6</v>
       </c>
       <c r="J8">
         <v>0.2098527687223227</v>
@@ -3011,31 +3092,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5954212540559204</v>
+        <v>0.59542125405592039</v>
       </c>
       <c r="C9">
-        <v>0.7753850707761217</v>
+        <v>0.77538507077612173</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7678918832681794</v>
+        <v>0.76789188326817936</v>
       </c>
       <c r="F9">
-        <v>0.7753798148105066</v>
+        <v>0.77537981481050655</v>
       </c>
       <c r="G9">
-        <v>0.7678918832681794</v>
+        <v>0.76789188326817936</v>
       </c>
       <c r="H9">
-        <v>0.2246096731870068</v>
+        <v>0.22460967318700681</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1799690727570729</v>
+        <v>0.17996907275707291</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3043,31 +3124,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4610335439350959</v>
+        <v>0.46103354393509588</v>
       </c>
       <c r="C10">
-        <v>0.7263919629801872</v>
+        <v>0.72639196298018716</v>
       </c>
       <c r="D10">
-        <v>0.5659593946024035</v>
+        <v>0.56595939460240352</v>
       </c>
       <c r="E10">
-        <v>0.634692493219191</v>
+        <v>0.63469249321919097</v>
       </c>
       <c r="F10">
-        <v>0.7263888400455338</v>
+        <v>0.72638884004553383</v>
       </c>
       <c r="G10">
-        <v>0.634692493219191</v>
+        <v>0.63469249321919097</v>
       </c>
       <c r="H10">
-        <v>0.2736051995662969</v>
+        <v>0.27360519956629692</v>
       </c>
       <c r="I10">
-        <v>5.960388169185158E-06</v>
+        <v>5.9603881691851583E-6</v>
       </c>
       <c r="J10">
-        <v>0.265355296110438</v>
+        <v>0.26535529611043801</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3075,31 +3156,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.7115912733104243</v>
+        <v>0.71159127331042427</v>
       </c>
       <c r="C11">
         <v>0.9438857936185312</v>
       </c>
       <c r="D11">
-        <v>0.5659186688001699</v>
+        <v>0.56591866880016994</v>
       </c>
       <c r="E11">
         <v>0.8422208951626734</v>
       </c>
       <c r="F11">
-        <v>0.8448986214869221</v>
+        <v>0.84489862148692207</v>
       </c>
       <c r="G11">
         <v>0.8422208951626734</v>
       </c>
       <c r="H11">
-        <v>0.05639176097966292</v>
+        <v>5.6391760979662919E-2</v>
       </c>
       <c r="I11">
-        <v>0.09870961753341492</v>
+        <v>9.8709617533414923E-2</v>
       </c>
       <c r="J11">
-        <v>0.1333073481764978</v>
+        <v>0.13330734817649781</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3107,25 +3188,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5086053245515481</v>
+        <v>0.50860532455154805</v>
       </c>
       <c r="C12">
-        <v>0.9349777437146505</v>
+        <v>0.93497774371465048</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="F12">
-        <v>0.9624970775204779</v>
+        <v>0.96249707752047786</v>
       </c>
       <c r="G12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="H12">
-        <v>0.03750292247952211</v>
+        <v>3.7502922479522111E-2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3139,31 +3220,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.70884794675046</v>
+        <v>0.70884794675046003</v>
       </c>
       <c r="C13">
-        <v>0.9621139254907807</v>
+        <v>0.96211392549078067</v>
       </c>
       <c r="D13">
-        <v>0.7631129387293846</v>
+        <v>0.76311293872938457</v>
       </c>
       <c r="E13">
-        <v>0.7859637510500663</v>
+        <v>0.78596375105006633</v>
       </c>
       <c r="F13">
-        <v>0.9018837647454125</v>
+        <v>0.90188376474541254</v>
       </c>
       <c r="G13">
-        <v>0.7859637510500663</v>
+        <v>0.78596375105006633</v>
       </c>
       <c r="H13">
-        <v>0.03029882214447666</v>
+        <v>3.0298822144476659E-2</v>
       </c>
       <c r="I13">
-        <v>0.06781741311011083</v>
+        <v>6.781741311011083E-2</v>
       </c>
       <c r="J13">
-        <v>0.1930358179949525</v>
+        <v>0.19303581799495251</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3171,7 +3252,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6412820170334864</v>
+        <v>0.64128201703348642</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3180,22 +3261,22 @@
         <v>0.7694817255995211</v>
       </c>
       <c r="E14">
-        <v>0.6799417230627484</v>
+        <v>0.67994172306274836</v>
       </c>
       <c r="F14">
-        <v>0.9431426183774662</v>
+        <v>0.94314261837746616</v>
       </c>
       <c r="G14">
-        <v>0.6799417230627484</v>
+        <v>0.67994172306274836</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05685738162253418</v>
+        <v>5.6857381622534182E-2</v>
       </c>
       <c r="J14">
-        <v>0.3018606013439796</v>
+        <v>0.30186060134397957</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3203,31 +3284,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.5226210305575285</v>
+        <v>0.52262103055752851</v>
       </c>
       <c r="C15">
-        <v>0.7428803125403948</v>
+        <v>0.74288031254039477</v>
       </c>
       <c r="D15">
-        <v>1.055459098395127E-06</v>
+        <v>1.0554590983951271E-6</v>
       </c>
       <c r="E15">
-        <v>0.7035146256482991</v>
+        <v>0.70351462564829914</v>
       </c>
       <c r="F15">
-        <v>0.742871592862658</v>
+        <v>0.74287159286265803</v>
       </c>
       <c r="G15">
-        <v>0.7035146256482991</v>
+        <v>0.70351462564829914</v>
       </c>
       <c r="H15">
         <v>0.2571189325973422</v>
       </c>
       <c r="I15">
-        <v>9.474539999999998E-06</v>
+        <v>9.4745399999999982E-6</v>
       </c>
       <c r="J15">
-        <v>0.2202505623051293</v>
+        <v>0.22025056230512929</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3235,28 +3316,28 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5919780288334016</v>
+        <v>0.59197802883340156</v>
       </c>
       <c r="C16">
-        <v>0.8565838388612353</v>
+        <v>0.85658383886123535</v>
       </c>
       <c r="D16">
-        <v>0.5007763526774281</v>
+        <v>0.50077635267742815</v>
       </c>
       <c r="E16">
-        <v>0.7120935186412126</v>
+        <v>0.71209351864121262</v>
       </c>
       <c r="F16">
-        <v>0.8288041430084895</v>
+        <v>0.82880414300848948</v>
       </c>
       <c r="G16">
-        <v>0.7120935186412126</v>
+        <v>0.71209351864121262</v>
       </c>
       <c r="H16">
         <v>0.1409265262066671</v>
       </c>
       <c r="I16">
-        <v>0.03026695214464442</v>
+        <v>3.0266952144644421E-2</v>
       </c>
       <c r="J16">
         <v>0.2368284928152869</v>
@@ -3267,34 +3348,35 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.162818693344591</v>
+        <v>0.16281869334459101</v>
       </c>
       <c r="C17">
         <v>0.1143615883390928</v>
       </c>
       <c r="D17">
-        <v>0.3320801476411845</v>
+        <v>0.33208014764118449</v>
       </c>
       <c r="E17">
-        <v>0.1605801199866912</v>
+        <v>0.16058011998669119</v>
       </c>
       <c r="F17">
-        <v>0.09350348498391889</v>
+        <v>9.3503484983918889E-2</v>
       </c>
       <c r="G17">
-        <v>0.1605801199866912</v>
+        <v>0.16058011998669119</v>
       </c>
       <c r="H17">
         <v>0.1162667914234089</v>
       </c>
       <c r="I17">
-        <v>0.04094197989988082</v>
+        <v>4.0941979899880819E-2</v>
       </c>
       <c r="J17">
-        <v>0.139202673499419</v>
+        <v>0.13920267349941901</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>